--- a/data/LegalRAG.xlsx
+++ b/data/LegalRAG.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>Câu hỏi</t>
   </si>
@@ -221,7 +221,33 @@
  Giữa con tàu và quốc gia mà tàu mang quốc tịch phải có một mối quan hệ thực sự , nghĩa là quốc gia này phải thường xuyên kiểm tra con tàu đó về các mặt : tổ chức nội bộ , về kỹ thuật , về khai thác và việc chấp hành luật lệ của tàu.</t>
   </si>
   <si>
-    <t>Trình bàyQuyền hạn và nghĩa vụ của nước trung lập và Tàu thuyền bên tham chiến ở vùng biển nước trung lập theo Luật chiến tranh trên biển?</t>
+    <t>Trình bày Quyền hạn và nghĩa vụ của nước trung lập và Tàu thuyền bên tham chiến ở vùng biển nước trung lập theo Luật chiến tranh trên biển?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quyền hạn và nghĩa vụ của nước trung lập 
+Nước trung lập là nước không tham gia chiến tranh, không giúp đỡ về mặt quân sự cho một bên tham chiến nào hoặc trước đó không tham gia ký kết hiệp ước liên  minh quân  sự với nước tham chiến.         
+Nếu các tàu thuyền của nước trung lập mà có những hành động như sau sẽ bị coi là tham chiến:
+- Trực tiếp tham gia hành động quân sự đối địch.
+- Trên tàu có người đại diện của nhà nước đối địch điều khiển hay giám sát.        
+- Tàu đang do chính phủ một bên đối địch sử dụng.
+- Tàu đang dùng để chuyên chở binh lính hay chuyển tin có lợi cho một bên tham chiến.        
+* Quyền hạn 
+- Lãnh thổ là bất khả xâm phạm tức là không cho quân đội các bên tham chiến nào trú đóng, đi qua.        
+-  Mọi hành động bảo vệ nền trung lập không được coi là hành động đối địch với nước tham chiến.        
+* Nghĩa vụ
+- Cấm giữ mọi nhân viên quân sự các bên tham chiến đến kết thúc chiến tranh nếu họ xâm nhập vào lãnh thổ nước mình.        
+- Không được thiết lập hay duy trì các trạm vô tuyến điện và các hệ thống thông tin liên lạc khác cho bất kỳ bên tham chiến nào kể cả có trước chiến tranh .
+-  Cấm công dân nước mình gia nhập lực lượng bên tham chiến .        
+- Cho phép tàu các bên tham chiến vào đậu theo luật và cho phép qua lại vô hại , nếu như  đó là tuyến đường quốc tế.        
+-  Không cuo các bên tham chiến thuê tàu làm nhiệm vụ tiếp tế cho tàu chiến ngoài khơi , trư trường hợp tiếp nhận và chuyên chở thương binh của các bên tham chiến phù hợp với tinh thần nhân đạo.        
+-  Mọi sự cho phép các bên tham chiến sử dụng lãnh thổ và vùng biển phải được đối xử như nhau , không làm lợi cho bên nào.        
+Tàu thuyền bên tham chiến ở vùng biển nước trung lập
+- Tàu thuyền bên tham chiến được đến đậu không quá 24 giờ khi thời tiết xấu hay bổ xung thực phẩm , nhiên liệu như thời bình nếu được phép của nước trung lập.        
+- Tàu chiến các bên tham chiến ít nhất 3 tháng được quay trở lại để bổ xung nhiên liệu mà đã được bổ xung trước đây.        
+- Tàu chiến các bên tham chiến được phép vào sửa chữa những hư hỏng không do hỏa lực đối phương gây ra  và nước trung lập qui định thời hạn sửa chữa nếu quá không cho tàu rời đến kết thúc chiến tranh . Nếu những hư hỏng do quá trình chiến đấu thì vẫn được sửa chữa nhưng bị lại đến hết chiến tranh.        
+-  Số lượng tàu chiến vào đậu không qua 3 chiếc nhưng tùy thuộc vào nước trung lập, nếu cùng lúc có cả hai bên đậu thì khi rời nước trung lập sẽ qui định rời theo thứ tự trước sau cách nhau 24 giờ.         
+-  Khi đã có tuyên chiến thì nước trung lập phải ra lệnh cho các tàu quân sự các bên tham chiến rời khỏi nước mình thời hạn không quá 24 giờ nếu đã đậu tư trước.        
+- Tàu buôn các bên tham chiến được phép vào đậu không hạn chế số lượng và thời gian như không được phép tiếp, nhận bất cứ thứ gì cho tàu quân sự.    </t>
   </si>
   <si>
     <t>Trình bày nội dungxác định Đường cơ sở, Nội thủy, Lãnh hải,Vùng tiếp giáp lãnh hải và chế độ pháp lý Nội thủy, Lãnh hải,Vùng tiếp giáp lãnh hảitheo Luật biển Việt Nam?</t>
@@ -1328,7 +1354,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1340,9 +1366,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1564,7 +1587,7 @@
     <col customWidth="1" min="2" max="2" width="107.5"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="24.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1596,11 +1619,11 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" ht="24.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2"/>
@@ -1628,11 +1651,11 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" ht="24.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2"/>
@@ -1660,11 +1683,11 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" ht="24.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2"/>
@@ -1692,11 +1715,11 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" ht="24.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2"/>
@@ -1724,11 +1747,11 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" ht="24.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2"/>
@@ -1756,11 +1779,11 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" ht="24.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2"/>
@@ -1788,9 +1811,12 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" ht="24.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1817,12 +1843,12 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" ht="24.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1849,12 +1875,12 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" ht="24.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1881,12 +1907,12 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" ht="24.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>20</v>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1913,12 +1939,12 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" ht="24.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>22</v>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1945,12 +1971,12 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" ht="24.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>24</v>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1977,12 +2003,12 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" ht="24.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>26</v>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2009,12 +2035,12 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" ht="24.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>28</v>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2041,12 +2067,12 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" ht="24.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>30</v>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2073,12 +2099,12 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" ht="24.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>32</v>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2105,12 +2131,12 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" ht="24.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>34</v>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2137,12 +2163,12 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" ht="24.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>36</v>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2169,12 +2195,12 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" ht="24.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>38</v>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2201,12 +2227,12 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" ht="24.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>40</v>
+      <c r="B21" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2233,12 +2259,12 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" ht="24.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>42</v>
+      <c r="B22" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2265,12 +2291,12 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" ht="24.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>44</v>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2297,12 +2323,12 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" ht="24.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>46</v>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2329,12 +2355,12 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" ht="24.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>48</v>
+      <c r="B25" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2361,12 +2387,12 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" ht="24.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>50</v>
+      <c r="B26" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2393,12 +2419,12 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" ht="24.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>52</v>
+      <c r="B27" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2425,12 +2451,12 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28">
+    <row r="28" ht="24.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>54</v>
+      <c r="B28" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2457,12 +2483,12 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29">
+    <row r="29" ht="24.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>56</v>
+      <c r="B29" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2489,12 +2515,12 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" ht="24.75" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>58</v>
+      <c r="B30" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -2521,12 +2547,12 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" ht="24.75" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>60</v>
+      <c r="B31" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2553,12 +2579,12 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32">
+    <row r="32" ht="24.75" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>62</v>
+      <c r="B32" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2585,12 +2611,12 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33">
+    <row r="33" ht="24.75" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>64</v>
+      <c r="B33" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2617,12 +2643,12 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34">
+    <row r="34" ht="24.75" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>66</v>
+      <c r="B34" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2649,12 +2675,12 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35">
+    <row r="35" ht="24.75" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>68</v>
+      <c r="B35" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2681,12 +2707,12 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36">
+    <row r="36" ht="24.75" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>70</v>
+      <c r="B36" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2713,12 +2739,12 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37">
+    <row r="37" ht="24.75" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>72</v>
+      <c r="B37" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2745,12 +2771,12 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38">
+    <row r="38" ht="24.75" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>74</v>
+      <c r="B38" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2777,12 +2803,12 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39">
+    <row r="39" ht="24.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>76</v>
+      <c r="B39" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2809,12 +2835,12 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40">
+    <row r="40" ht="24.75" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>78</v>
+      <c r="B40" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2841,12 +2867,12 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41">
+    <row r="41" ht="24.75" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>80</v>
+      <c r="B41" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -2873,12 +2899,12 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42">
+    <row r="42" ht="24.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>82</v>
+      <c r="B42" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2905,12 +2931,12 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43">
+    <row r="43" ht="24.75" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>84</v>
+      <c r="B43" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2937,12 +2963,12 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44">
+    <row r="44" ht="24.75" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>86</v>
+      <c r="B44" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2969,12 +2995,12 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45">
+    <row r="45" ht="24.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>88</v>
+      <c r="B45" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -3001,12 +3027,12 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46">
+    <row r="46" ht="24.75" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>90</v>
+      <c r="B46" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -3033,12 +3059,12 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47">
+    <row r="47" ht="24.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>92</v>
+      <c r="B47" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -3065,12 +3091,12 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48">
+    <row r="48" ht="24.75" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>94</v>
+      <c r="B48" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -3097,12 +3123,12 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49">
+    <row r="49" ht="24.75" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>96</v>
+      <c r="B49" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -3129,12 +3155,12 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50">
+    <row r="50" ht="24.75" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>98</v>
+      <c r="B50" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -3161,12 +3187,12 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51">
+    <row r="51" ht="24.75" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>100</v>
+      <c r="B51" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -3193,12 +3219,12 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52">
+    <row r="52" ht="24.75" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>102</v>
+      <c r="B52" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -3225,12 +3251,12 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53">
+    <row r="53" ht="24.75" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>104</v>
+      <c r="B53" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -3257,12 +3283,12 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54">
+    <row r="54" ht="24.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>106</v>
+      <c r="B54" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -3289,12 +3315,12 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55">
+    <row r="55" ht="24.75" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>108</v>
+      <c r="B55" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -3321,12 +3347,12 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56">
+    <row r="56" ht="24.75" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>110</v>
+      <c r="B56" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -3353,12 +3379,12 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57">
+    <row r="57" ht="24.75" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>112</v>
+      <c r="B57" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -3385,12 +3411,12 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58">
+    <row r="58" ht="24.75" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>114</v>
+      <c r="B58" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -3417,12 +3443,12 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59">
+    <row r="59" ht="24.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>116</v>
+      <c r="B59" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -3449,12 +3475,12 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60">
+    <row r="60" ht="24.75" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>118</v>
+      <c r="B60" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -3481,12 +3507,12 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61">
+    <row r="61" ht="24.75" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>120</v>
+      <c r="B61" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -3513,12 +3539,12 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62">
+    <row r="62" ht="24.75" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>122</v>
+      <c r="B62" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -3545,12 +3571,12 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63">
+    <row r="63" ht="24.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>124</v>
+      <c r="B63" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -3577,12 +3603,12 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64">
+    <row r="64" ht="24.75" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>126</v>
+      <c r="B64" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -3609,12 +3635,12 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65">
+    <row r="65" ht="24.75" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>128</v>
+      <c r="B65" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -3641,12 +3667,12 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66">
+    <row r="66" ht="24.75" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>130</v>
+      <c r="B66" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -3673,12 +3699,12 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67">
+    <row r="67" ht="24.75" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>132</v>
+      <c r="B67" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -3705,12 +3731,12 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68">
+    <row r="68" ht="24.75" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>134</v>
+      <c r="B68" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -3737,12 +3763,12 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69">
+    <row r="69" ht="24.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>136</v>
+      <c r="B69" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -3769,12 +3795,12 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70">
+    <row r="70" ht="24.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>138</v>
+      <c r="B70" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3801,12 +3827,12 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71">
+    <row r="71" ht="24.75" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>140</v>
+      <c r="B71" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -3833,12 +3859,12 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72">
+    <row r="72" ht="24.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>142</v>
+      <c r="B72" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -3865,12 +3891,12 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73">
+    <row r="73" ht="24.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>144</v>
+      <c r="B73" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -3897,12 +3923,12 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74">
+    <row r="74" ht="24.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>146</v>
+      <c r="B74" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -3929,12 +3955,12 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75">
+    <row r="75" ht="24.75" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>148</v>
+      <c r="B75" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -3961,12 +3987,12 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76">
+    <row r="76" ht="24.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>150</v>
+      <c r="B76" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -3993,12 +4019,12 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77">
+    <row r="77" ht="24.75" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>152</v>
+      <c r="B77" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -4025,12 +4051,12 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78">
+    <row r="78" ht="24.75" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>154</v>
+      <c r="B78" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -4057,12 +4083,12 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79">
+    <row r="79" ht="24.75" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>156</v>
+      <c r="B79" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -4089,12 +4115,12 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80">
+    <row r="80" ht="24.75" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>158</v>
+      <c r="B80" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -4121,12 +4147,12 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81">
+    <row r="81" ht="24.75" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>160</v>
+      <c r="B81" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -4153,12 +4179,12 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82">
+    <row r="82" ht="24.75" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>162</v>
+      <c r="B82" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -4185,12 +4211,12 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83">
+    <row r="83" ht="24.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>164</v>
+      <c r="B83" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -4217,12 +4243,12 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84">
+    <row r="84" ht="24.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>166</v>
+      <c r="B84" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -4249,12 +4275,12 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85">
+    <row r="85" ht="24.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>168</v>
+      <c r="B85" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -4281,12 +4307,12 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86">
+    <row r="86" ht="24.75" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>170</v>
+      <c r="B86" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -4313,7 +4339,7 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87">
+    <row r="87" ht="24.75" customHeight="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4341,7 +4367,7 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88">
+    <row r="88" ht="24.75" customHeight="1">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4369,7 +4395,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89">
+    <row r="89" ht="24.75" customHeight="1">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4397,7 +4423,7 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90">
+    <row r="90" ht="24.75" customHeight="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4425,7 +4451,7 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91">
+    <row r="91" ht="24.75" customHeight="1">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4453,7 +4479,7 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92">
+    <row r="92" ht="24.75" customHeight="1">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4481,7 +4507,7 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93">
+    <row r="93" ht="24.75" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4509,7 +4535,7 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94">
+    <row r="94" ht="24.75" customHeight="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4537,7 +4563,7 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95">
+    <row r="95" ht="24.75" customHeight="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4565,7 +4591,7 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96">
+    <row r="96" ht="24.75" customHeight="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4593,7 +4619,7 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97">
+    <row r="97" ht="24.75" customHeight="1">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4621,7 +4647,7 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98">
+    <row r="98" ht="24.75" customHeight="1">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4649,7 +4675,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99">
+    <row r="99" ht="24.75" customHeight="1">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4677,7 +4703,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100">
+    <row r="100" ht="24.75" customHeight="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4705,7 +4731,7 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101">
+    <row r="101" ht="24.75" customHeight="1">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4733,7 +4759,7 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102">
+    <row r="102" ht="24.75" customHeight="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4761,7 +4787,7 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103">
+    <row r="103" ht="24.75" customHeight="1">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4789,7 +4815,7 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104">
+    <row r="104" ht="24.75" customHeight="1">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4817,7 +4843,7 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105">
+    <row r="105" ht="24.75" customHeight="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4845,7 +4871,7 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106">
+    <row r="106" ht="24.75" customHeight="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4873,7 +4899,7 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107">
+    <row r="107" ht="24.75" customHeight="1">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4901,7 +4927,7 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108">
+    <row r="108" ht="24.75" customHeight="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4929,7 +4955,7 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109">
+    <row r="109" ht="24.75" customHeight="1">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4957,7 +4983,7 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110">
+    <row r="110" ht="24.75" customHeight="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4985,7 +5011,7 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111">
+    <row r="111" ht="24.75" customHeight="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5013,7 +5039,7 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112">
+    <row r="112" ht="24.75" customHeight="1">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5041,7 +5067,7 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113">
+    <row r="113" ht="24.75" customHeight="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5069,7 +5095,7 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114">
+    <row r="114" ht="24.75" customHeight="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5097,7 +5123,7 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115">
+    <row r="115" ht="24.75" customHeight="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5125,7 +5151,7 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116">
+    <row r="116" ht="24.75" customHeight="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5153,7 +5179,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117">
+    <row r="117" ht="24.75" customHeight="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5181,7 +5207,7 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118">
+    <row r="118" ht="24.75" customHeight="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5209,7 +5235,7 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119">
+    <row r="119" ht="24.75" customHeight="1">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5237,7 +5263,7 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120">
+    <row r="120" ht="24.75" customHeight="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5265,7 +5291,7 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121">
+    <row r="121" ht="24.75" customHeight="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5293,7 +5319,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122">
+    <row r="122" ht="24.75" customHeight="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5321,7 +5347,7 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123">
+    <row r="123" ht="24.75" customHeight="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5349,7 +5375,7 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124">
+    <row r="124" ht="24.75" customHeight="1">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5377,7 +5403,7 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125">
+    <row r="125" ht="24.75" customHeight="1">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5405,7 +5431,7 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126">
+    <row r="126" ht="24.75" customHeight="1">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5433,7 +5459,7 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127">
+    <row r="127" ht="24.75" customHeight="1">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5461,7 +5487,7 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128">
+    <row r="128" ht="24.75" customHeight="1">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5489,7 +5515,7 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129">
+    <row r="129" ht="24.75" customHeight="1">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5517,7 +5543,7 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130">
+    <row r="130" ht="24.75" customHeight="1">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5545,7 +5571,7 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131">
+    <row r="131" ht="24.75" customHeight="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5573,7 +5599,7 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132">
+    <row r="132" ht="24.75" customHeight="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5601,7 +5627,7 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133">
+    <row r="133" ht="24.75" customHeight="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5629,7 +5655,7 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134">
+    <row r="134" ht="24.75" customHeight="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5657,7 +5683,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135">
+    <row r="135" ht="24.75" customHeight="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5685,7 +5711,7 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136">
+    <row r="136" ht="24.75" customHeight="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5713,7 +5739,7 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137">
+    <row r="137" ht="24.75" customHeight="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5741,7 +5767,7 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138">
+    <row r="138" ht="24.75" customHeight="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5769,7 +5795,7 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139">
+    <row r="139" ht="24.75" customHeight="1">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5797,7 +5823,7 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140">
+    <row r="140" ht="24.75" customHeight="1">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5825,7 +5851,7 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141">
+    <row r="141" ht="24.75" customHeight="1">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5853,7 +5879,7 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142">
+    <row r="142" ht="24.75" customHeight="1">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5881,7 +5907,7 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143">
+    <row r="143" ht="24.75" customHeight="1">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5909,7 +5935,7 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144">
+    <row r="144" ht="24.75" customHeight="1">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5937,7 +5963,7 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145">
+    <row r="145" ht="24.75" customHeight="1">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5965,7 +5991,7 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146">
+    <row r="146" ht="24.75" customHeight="1">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -5993,7 +6019,7 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147">
+    <row r="147" ht="24.75" customHeight="1">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -6021,7 +6047,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148">
+    <row r="148" ht="24.75" customHeight="1">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -6049,7 +6075,7 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149">
+    <row r="149" ht="24.75" customHeight="1">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -6077,7 +6103,7 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150">
+    <row r="150" ht="24.75" customHeight="1">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -6105,7 +6131,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151">
+    <row r="151" ht="24.75" customHeight="1">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6133,7 +6159,7 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152">
+    <row r="152" ht="24.75" customHeight="1">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6161,7 +6187,7 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153">
+    <row r="153" ht="24.75" customHeight="1">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6189,7 +6215,7 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154">
+    <row r="154" ht="24.75" customHeight="1">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6217,7 +6243,7 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155">
+    <row r="155" ht="24.75" customHeight="1">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6245,7 +6271,7 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156">
+    <row r="156" ht="24.75" customHeight="1">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6273,7 +6299,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157">
+    <row r="157" ht="24.75" customHeight="1">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -6301,7 +6327,7 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158">
+    <row r="158" ht="24.75" customHeight="1">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -6329,7 +6355,7 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159">
+    <row r="159" ht="24.75" customHeight="1">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6357,7 +6383,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160">
+    <row r="160" ht="24.75" customHeight="1">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -6385,7 +6411,7 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161">
+    <row r="161" ht="24.75" customHeight="1">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6413,7 +6439,7 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162">
+    <row r="162" ht="24.75" customHeight="1">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6441,7 +6467,7 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163">
+    <row r="163" ht="24.75" customHeight="1">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -6469,7 +6495,7 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164">
+    <row r="164" ht="24.75" customHeight="1">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6497,7 +6523,7 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165">
+    <row r="165" ht="24.75" customHeight="1">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6525,7 +6551,7 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166">
+    <row r="166" ht="24.75" customHeight="1">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6553,7 +6579,7 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167">
+    <row r="167" ht="24.75" customHeight="1">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -6581,7 +6607,7 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168">
+    <row r="168" ht="24.75" customHeight="1">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6609,7 +6635,7 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169">
+    <row r="169" ht="24.75" customHeight="1">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6637,7 +6663,7 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170">
+    <row r="170" ht="24.75" customHeight="1">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6665,7 +6691,7 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171">
+    <row r="171" ht="24.75" customHeight="1">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6693,7 +6719,7 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172">
+    <row r="172" ht="24.75" customHeight="1">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6721,7 +6747,7 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173">
+    <row r="173" ht="24.75" customHeight="1">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6749,7 +6775,7 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174">
+    <row r="174" ht="24.75" customHeight="1">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -6777,7 +6803,7 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175">
+    <row r="175" ht="24.75" customHeight="1">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -6805,7 +6831,7 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176">
+    <row r="176" ht="24.75" customHeight="1">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -6833,7 +6859,7 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177">
+    <row r="177" ht="24.75" customHeight="1">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6861,7 +6887,7 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178">
+    <row r="178" ht="24.75" customHeight="1">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6889,7 +6915,7 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179">
+    <row r="179" ht="24.75" customHeight="1">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -6917,7 +6943,7 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180">
+    <row r="180" ht="24.75" customHeight="1">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6945,7 +6971,7 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181">
+    <row r="181" ht="24.75" customHeight="1">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6973,7 +6999,7 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182">
+    <row r="182" ht="24.75" customHeight="1">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -7001,7 +7027,7 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183">
+    <row r="183" ht="24.75" customHeight="1">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -7029,7 +7055,7 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184">
+    <row r="184" ht="24.75" customHeight="1">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -7057,7 +7083,7 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185">
+    <row r="185" ht="24.75" customHeight="1">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -7085,7 +7111,7 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186">
+    <row r="186" ht="24.75" customHeight="1">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -7113,7 +7139,7 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187">
+    <row r="187" ht="24.75" customHeight="1">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -7141,7 +7167,7 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188">
+    <row r="188" ht="24.75" customHeight="1">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -7169,7 +7195,7 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189">
+    <row r="189" ht="24.75" customHeight="1">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -7197,7 +7223,7 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190">
+    <row r="190" ht="24.75" customHeight="1">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -7225,7 +7251,7 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191">
+    <row r="191" ht="24.75" customHeight="1">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -7253,7 +7279,7 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192">
+    <row r="192" ht="24.75" customHeight="1">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -7281,7 +7307,7 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193">
+    <row r="193" ht="24.75" customHeight="1">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -7309,7 +7335,7 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194">
+    <row r="194" ht="24.75" customHeight="1">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -7337,7 +7363,7 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195">
+    <row r="195" ht="24.75" customHeight="1">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -7365,7 +7391,7 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196">
+    <row r="196" ht="24.75" customHeight="1">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -7393,7 +7419,7 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197">
+    <row r="197" ht="24.75" customHeight="1">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -7421,7 +7447,7 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198">
+    <row r="198" ht="24.75" customHeight="1">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -7449,7 +7475,7 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199">
+    <row r="199" ht="24.75" customHeight="1">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -7477,7 +7503,7 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200">
+    <row r="200" ht="24.75" customHeight="1">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -7505,7 +7531,7 @@
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
     </row>
-    <row r="201">
+    <row r="201" ht="24.75" customHeight="1">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -7533,7 +7559,7 @@
       <c r="Y201" s="2"/>
       <c r="Z201" s="2"/>
     </row>
-    <row r="202">
+    <row r="202" ht="24.75" customHeight="1">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -7561,7 +7587,7 @@
       <c r="Y202" s="2"/>
       <c r="Z202" s="2"/>
     </row>
-    <row r="203">
+    <row r="203" ht="24.75" customHeight="1">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -7589,7 +7615,7 @@
       <c r="Y203" s="2"/>
       <c r="Z203" s="2"/>
     </row>
-    <row r="204">
+    <row r="204" ht="24.75" customHeight="1">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -7617,7 +7643,7 @@
       <c r="Y204" s="2"/>
       <c r="Z204" s="2"/>
     </row>
-    <row r="205">
+    <row r="205" ht="24.75" customHeight="1">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -7645,7 +7671,7 @@
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
     </row>
-    <row r="206">
+    <row r="206" ht="24.75" customHeight="1">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -7673,7 +7699,7 @@
       <c r="Y206" s="2"/>
       <c r="Z206" s="2"/>
     </row>
-    <row r="207">
+    <row r="207" ht="24.75" customHeight="1">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -7701,7 +7727,7 @@
       <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
     </row>
-    <row r="208">
+    <row r="208" ht="24.75" customHeight="1">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -7729,7 +7755,7 @@
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
     </row>
-    <row r="209">
+    <row r="209" ht="24.75" customHeight="1">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -7757,7 +7783,7 @@
       <c r="Y209" s="2"/>
       <c r="Z209" s="2"/>
     </row>
-    <row r="210">
+    <row r="210" ht="24.75" customHeight="1">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -7785,7 +7811,7 @@
       <c r="Y210" s="2"/>
       <c r="Z210" s="2"/>
     </row>
-    <row r="211">
+    <row r="211" ht="24.75" customHeight="1">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -7813,7 +7839,7 @@
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
     </row>
-    <row r="212">
+    <row r="212" ht="24.75" customHeight="1">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -7841,7 +7867,7 @@
       <c r="Y212" s="2"/>
       <c r="Z212" s="2"/>
     </row>
-    <row r="213">
+    <row r="213" ht="24.75" customHeight="1">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -7869,7 +7895,7 @@
       <c r="Y213" s="2"/>
       <c r="Z213" s="2"/>
     </row>
-    <row r="214">
+    <row r="214" ht="24.75" customHeight="1">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -7897,7 +7923,7 @@
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
     </row>
-    <row r="215">
+    <row r="215" ht="24.75" customHeight="1">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -7925,7 +7951,7 @@
       <c r="Y215" s="2"/>
       <c r="Z215" s="2"/>
     </row>
-    <row r="216">
+    <row r="216" ht="24.75" customHeight="1">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -7953,7 +7979,7 @@
       <c r="Y216" s="2"/>
       <c r="Z216" s="2"/>
     </row>
-    <row r="217">
+    <row r="217" ht="24.75" customHeight="1">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -7981,7 +8007,7 @@
       <c r="Y217" s="2"/>
       <c r="Z217" s="2"/>
     </row>
-    <row r="218">
+    <row r="218" ht="24.75" customHeight="1">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -8009,7 +8035,7 @@
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
     </row>
-    <row r="219">
+    <row r="219" ht="24.75" customHeight="1">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -8037,7 +8063,7 @@
       <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
     </row>
-    <row r="220">
+    <row r="220" ht="24.75" customHeight="1">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -8065,7 +8091,7 @@
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
     </row>
-    <row r="221">
+    <row r="221" ht="24.75" customHeight="1">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -8093,7 +8119,7 @@
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
     </row>
-    <row r="222">
+    <row r="222" ht="24.75" customHeight="1">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -8121,7 +8147,7 @@
       <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
     </row>
-    <row r="223">
+    <row r="223" ht="24.75" customHeight="1">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -8149,7 +8175,7 @@
       <c r="Y223" s="2"/>
       <c r="Z223" s="2"/>
     </row>
-    <row r="224">
+    <row r="224" ht="24.75" customHeight="1">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -8177,7 +8203,7 @@
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
     </row>
-    <row r="225">
+    <row r="225" ht="24.75" customHeight="1">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -8205,7 +8231,7 @@
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
     </row>
-    <row r="226">
+    <row r="226" ht="24.75" customHeight="1">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -8233,7 +8259,7 @@
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
     </row>
-    <row r="227">
+    <row r="227" ht="24.75" customHeight="1">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -8261,7 +8287,7 @@
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
     </row>
-    <row r="228">
+    <row r="228" ht="24.75" customHeight="1">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -8289,7 +8315,7 @@
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
     </row>
-    <row r="229">
+    <row r="229" ht="24.75" customHeight="1">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -8317,7 +8343,7 @@
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
     </row>
-    <row r="230">
+    <row r="230" ht="24.75" customHeight="1">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -8345,7 +8371,7 @@
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
     </row>
-    <row r="231">
+    <row r="231" ht="24.75" customHeight="1">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -8373,7 +8399,7 @@
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
     </row>
-    <row r="232">
+    <row r="232" ht="24.75" customHeight="1">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -8401,7 +8427,7 @@
       <c r="Y232" s="2"/>
       <c r="Z232" s="2"/>
     </row>
-    <row r="233">
+    <row r="233" ht="24.75" customHeight="1">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -8429,7 +8455,7 @@
       <c r="Y233" s="2"/>
       <c r="Z233" s="2"/>
     </row>
-    <row r="234">
+    <row r="234" ht="24.75" customHeight="1">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -8457,7 +8483,7 @@
       <c r="Y234" s="2"/>
       <c r="Z234" s="2"/>
     </row>
-    <row r="235">
+    <row r="235" ht="24.75" customHeight="1">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -8485,7 +8511,7 @@
       <c r="Y235" s="2"/>
       <c r="Z235" s="2"/>
     </row>
-    <row r="236">
+    <row r="236" ht="24.75" customHeight="1">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -8513,7 +8539,7 @@
       <c r="Y236" s="2"/>
       <c r="Z236" s="2"/>
     </row>
-    <row r="237">
+    <row r="237" ht="24.75" customHeight="1">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -8541,7 +8567,7 @@
       <c r="Y237" s="2"/>
       <c r="Z237" s="2"/>
     </row>
-    <row r="238">
+    <row r="238" ht="24.75" customHeight="1">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -8569,7 +8595,7 @@
       <c r="Y238" s="2"/>
       <c r="Z238" s="2"/>
     </row>
-    <row r="239">
+    <row r="239" ht="24.75" customHeight="1">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -8597,7 +8623,7 @@
       <c r="Y239" s="2"/>
       <c r="Z239" s="2"/>
     </row>
-    <row r="240">
+    <row r="240" ht="24.75" customHeight="1">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -8625,7 +8651,7 @@
       <c r="Y240" s="2"/>
       <c r="Z240" s="2"/>
     </row>
-    <row r="241">
+    <row r="241" ht="24.75" customHeight="1">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -8653,7 +8679,7 @@
       <c r="Y241" s="2"/>
       <c r="Z241" s="2"/>
     </row>
-    <row r="242">
+    <row r="242" ht="24.75" customHeight="1">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -8681,7 +8707,7 @@
       <c r="Y242" s="2"/>
       <c r="Z242" s="2"/>
     </row>
-    <row r="243">
+    <row r="243" ht="24.75" customHeight="1">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -8709,7 +8735,7 @@
       <c r="Y243" s="2"/>
       <c r="Z243" s="2"/>
     </row>
-    <row r="244">
+    <row r="244" ht="24.75" customHeight="1">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -8737,7 +8763,7 @@
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
     </row>
-    <row r="245">
+    <row r="245" ht="24.75" customHeight="1">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -8765,7 +8791,7 @@
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
     </row>
-    <row r="246">
+    <row r="246" ht="24.75" customHeight="1">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -8793,7 +8819,7 @@
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
     </row>
-    <row r="247">
+    <row r="247" ht="24.75" customHeight="1">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -8821,7 +8847,7 @@
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
     </row>
-    <row r="248">
+    <row r="248" ht="24.75" customHeight="1">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -8849,7 +8875,7 @@
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
     </row>
-    <row r="249">
+    <row r="249" ht="24.75" customHeight="1">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -8877,7 +8903,7 @@
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
     </row>
-    <row r="250">
+    <row r="250" ht="24.75" customHeight="1">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -8905,7 +8931,7 @@
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
     </row>
-    <row r="251">
+    <row r="251" ht="24.75" customHeight="1">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -8933,7 +8959,7 @@
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
     </row>
-    <row r="252">
+    <row r="252" ht="24.75" customHeight="1">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -8961,7 +8987,7 @@
       <c r="Y252" s="2"/>
       <c r="Z252" s="2"/>
     </row>
-    <row r="253">
+    <row r="253" ht="24.75" customHeight="1">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -8989,7 +9015,7 @@
       <c r="Y253" s="2"/>
       <c r="Z253" s="2"/>
     </row>
-    <row r="254">
+    <row r="254" ht="24.75" customHeight="1">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -9017,7 +9043,7 @@
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
     </row>
-    <row r="255">
+    <row r="255" ht="24.75" customHeight="1">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -9045,7 +9071,7 @@
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
     </row>
-    <row r="256">
+    <row r="256" ht="24.75" customHeight="1">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -9073,7 +9099,7 @@
       <c r="Y256" s="2"/>
       <c r="Z256" s="2"/>
     </row>
-    <row r="257">
+    <row r="257" ht="24.75" customHeight="1">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -9101,7 +9127,7 @@
       <c r="Y257" s="2"/>
       <c r="Z257" s="2"/>
     </row>
-    <row r="258">
+    <row r="258" ht="24.75" customHeight="1">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -9129,7 +9155,7 @@
       <c r="Y258" s="2"/>
       <c r="Z258" s="2"/>
     </row>
-    <row r="259">
+    <row r="259" ht="24.75" customHeight="1">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -9157,7 +9183,7 @@
       <c r="Y259" s="2"/>
       <c r="Z259" s="2"/>
     </row>
-    <row r="260">
+    <row r="260" ht="24.75" customHeight="1">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -9185,7 +9211,7 @@
       <c r="Y260" s="2"/>
       <c r="Z260" s="2"/>
     </row>
-    <row r="261">
+    <row r="261" ht="24.75" customHeight="1">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -9213,7 +9239,7 @@
       <c r="Y261" s="2"/>
       <c r="Z261" s="2"/>
     </row>
-    <row r="262">
+    <row r="262" ht="24.75" customHeight="1">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -9241,7 +9267,7 @@
       <c r="Y262" s="2"/>
       <c r="Z262" s="2"/>
     </row>
-    <row r="263">
+    <row r="263" ht="24.75" customHeight="1">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -9269,7 +9295,7 @@
       <c r="Y263" s="2"/>
       <c r="Z263" s="2"/>
     </row>
-    <row r="264">
+    <row r="264" ht="24.75" customHeight="1">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -9297,7 +9323,7 @@
       <c r="Y264" s="2"/>
       <c r="Z264" s="2"/>
     </row>
-    <row r="265">
+    <row r="265" ht="24.75" customHeight="1">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -9325,7 +9351,7 @@
       <c r="Y265" s="2"/>
       <c r="Z265" s="2"/>
     </row>
-    <row r="266">
+    <row r="266" ht="24.75" customHeight="1">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -9353,7 +9379,7 @@
       <c r="Y266" s="2"/>
       <c r="Z266" s="2"/>
     </row>
-    <row r="267">
+    <row r="267" ht="24.75" customHeight="1">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -9381,7 +9407,7 @@
       <c r="Y267" s="2"/>
       <c r="Z267" s="2"/>
     </row>
-    <row r="268">
+    <row r="268" ht="24.75" customHeight="1">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -9409,7 +9435,7 @@
       <c r="Y268" s="2"/>
       <c r="Z268" s="2"/>
     </row>
-    <row r="269">
+    <row r="269" ht="24.75" customHeight="1">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -9437,7 +9463,7 @@
       <c r="Y269" s="2"/>
       <c r="Z269" s="2"/>
     </row>
-    <row r="270">
+    <row r="270" ht="24.75" customHeight="1">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -9465,7 +9491,7 @@
       <c r="Y270" s="2"/>
       <c r="Z270" s="2"/>
     </row>
-    <row r="271">
+    <row r="271" ht="24.75" customHeight="1">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -9493,7 +9519,7 @@
       <c r="Y271" s="2"/>
       <c r="Z271" s="2"/>
     </row>
-    <row r="272">
+    <row r="272" ht="24.75" customHeight="1">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -9521,7 +9547,7 @@
       <c r="Y272" s="2"/>
       <c r="Z272" s="2"/>
     </row>
-    <row r="273">
+    <row r="273" ht="24.75" customHeight="1">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -9549,7 +9575,7 @@
       <c r="Y273" s="2"/>
       <c r="Z273" s="2"/>
     </row>
-    <row r="274">
+    <row r="274" ht="24.75" customHeight="1">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -9577,7 +9603,7 @@
       <c r="Y274" s="2"/>
       <c r="Z274" s="2"/>
     </row>
-    <row r="275">
+    <row r="275" ht="24.75" customHeight="1">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -9605,7 +9631,7 @@
       <c r="Y275" s="2"/>
       <c r="Z275" s="2"/>
     </row>
-    <row r="276">
+    <row r="276" ht="24.75" customHeight="1">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -9633,7 +9659,7 @@
       <c r="Y276" s="2"/>
       <c r="Z276" s="2"/>
     </row>
-    <row r="277">
+    <row r="277" ht="24.75" customHeight="1">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -9661,7 +9687,7 @@
       <c r="Y277" s="2"/>
       <c r="Z277" s="2"/>
     </row>
-    <row r="278">
+    <row r="278" ht="24.75" customHeight="1">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -9689,7 +9715,7 @@
       <c r="Y278" s="2"/>
       <c r="Z278" s="2"/>
     </row>
-    <row r="279">
+    <row r="279" ht="24.75" customHeight="1">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -9717,7 +9743,7 @@
       <c r="Y279" s="2"/>
       <c r="Z279" s="2"/>
     </row>
-    <row r="280">
+    <row r="280" ht="24.75" customHeight="1">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -9745,7 +9771,7 @@
       <c r="Y280" s="2"/>
       <c r="Z280" s="2"/>
     </row>
-    <row r="281">
+    <row r="281" ht="24.75" customHeight="1">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -9773,7 +9799,7 @@
       <c r="Y281" s="2"/>
       <c r="Z281" s="2"/>
     </row>
-    <row r="282">
+    <row r="282" ht="24.75" customHeight="1">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -9801,7 +9827,7 @@
       <c r="Y282" s="2"/>
       <c r="Z282" s="2"/>
     </row>
-    <row r="283">
+    <row r="283" ht="24.75" customHeight="1">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -9829,7 +9855,7 @@
       <c r="Y283" s="2"/>
       <c r="Z283" s="2"/>
     </row>
-    <row r="284">
+    <row r="284" ht="24.75" customHeight="1">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -9857,7 +9883,7 @@
       <c r="Y284" s="2"/>
       <c r="Z284" s="2"/>
     </row>
-    <row r="285">
+    <row r="285" ht="24.75" customHeight="1">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -9885,7 +9911,7 @@
       <c r="Y285" s="2"/>
       <c r="Z285" s="2"/>
     </row>
-    <row r="286">
+    <row r="286" ht="24.75" customHeight="1">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -9913,7 +9939,7 @@
       <c r="Y286" s="2"/>
       <c r="Z286" s="2"/>
     </row>
-    <row r="287">
+    <row r="287" ht="24.75" customHeight="1">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -9941,7 +9967,7 @@
       <c r="Y287" s="2"/>
       <c r="Z287" s="2"/>
     </row>
-    <row r="288">
+    <row r="288" ht="24.75" customHeight="1">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -9969,7 +9995,7 @@
       <c r="Y288" s="2"/>
       <c r="Z288" s="2"/>
     </row>
-    <row r="289">
+    <row r="289" ht="24.75" customHeight="1">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -9997,7 +10023,7 @@
       <c r="Y289" s="2"/>
       <c r="Z289" s="2"/>
     </row>
-    <row r="290">
+    <row r="290" ht="24.75" customHeight="1">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -10025,7 +10051,7 @@
       <c r="Y290" s="2"/>
       <c r="Z290" s="2"/>
     </row>
-    <row r="291">
+    <row r="291" ht="24.75" customHeight="1">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -10053,7 +10079,7 @@
       <c r="Y291" s="2"/>
       <c r="Z291" s="2"/>
     </row>
-    <row r="292">
+    <row r="292" ht="24.75" customHeight="1">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -10081,7 +10107,7 @@
       <c r="Y292" s="2"/>
       <c r="Z292" s="2"/>
     </row>
-    <row r="293">
+    <row r="293" ht="24.75" customHeight="1">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -10109,7 +10135,7 @@
       <c r="Y293" s="2"/>
       <c r="Z293" s="2"/>
     </row>
-    <row r="294">
+    <row r="294" ht="24.75" customHeight="1">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -10137,7 +10163,7 @@
       <c r="Y294" s="2"/>
       <c r="Z294" s="2"/>
     </row>
-    <row r="295">
+    <row r="295" ht="24.75" customHeight="1">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -10165,7 +10191,7 @@
       <c r="Y295" s="2"/>
       <c r="Z295" s="2"/>
     </row>
-    <row r="296">
+    <row r="296" ht="24.75" customHeight="1">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -10193,7 +10219,7 @@
       <c r="Y296" s="2"/>
       <c r="Z296" s="2"/>
     </row>
-    <row r="297">
+    <row r="297" ht="24.75" customHeight="1">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -10221,7 +10247,7 @@
       <c r="Y297" s="2"/>
       <c r="Z297" s="2"/>
     </row>
-    <row r="298">
+    <row r="298" ht="24.75" customHeight="1">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -10249,7 +10275,7 @@
       <c r="Y298" s="2"/>
       <c r="Z298" s="2"/>
     </row>
-    <row r="299">
+    <row r="299" ht="24.75" customHeight="1">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -10277,7 +10303,7 @@
       <c r="Y299" s="2"/>
       <c r="Z299" s="2"/>
     </row>
-    <row r="300">
+    <row r="300" ht="24.75" customHeight="1">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -10305,7 +10331,7 @@
       <c r="Y300" s="2"/>
       <c r="Z300" s="2"/>
     </row>
-    <row r="301">
+    <row r="301" ht="24.75" customHeight="1">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -10333,7 +10359,7 @@
       <c r="Y301" s="2"/>
       <c r="Z301" s="2"/>
     </row>
-    <row r="302">
+    <row r="302" ht="24.75" customHeight="1">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -10361,7 +10387,7 @@
       <c r="Y302" s="2"/>
       <c r="Z302" s="2"/>
     </row>
-    <row r="303">
+    <row r="303" ht="24.75" customHeight="1">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -10389,7 +10415,7 @@
       <c r="Y303" s="2"/>
       <c r="Z303" s="2"/>
     </row>
-    <row r="304">
+    <row r="304" ht="24.75" customHeight="1">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -10417,7 +10443,7 @@
       <c r="Y304" s="2"/>
       <c r="Z304" s="2"/>
     </row>
-    <row r="305">
+    <row r="305" ht="24.75" customHeight="1">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -10445,7 +10471,7 @@
       <c r="Y305" s="2"/>
       <c r="Z305" s="2"/>
     </row>
-    <row r="306">
+    <row r="306" ht="24.75" customHeight="1">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -10473,7 +10499,7 @@
       <c r="Y306" s="2"/>
       <c r="Z306" s="2"/>
     </row>
-    <row r="307">
+    <row r="307" ht="24.75" customHeight="1">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -10501,7 +10527,7 @@
       <c r="Y307" s="2"/>
       <c r="Z307" s="2"/>
     </row>
-    <row r="308">
+    <row r="308" ht="24.75" customHeight="1">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -10529,7 +10555,7 @@
       <c r="Y308" s="2"/>
       <c r="Z308" s="2"/>
     </row>
-    <row r="309">
+    <row r="309" ht="24.75" customHeight="1">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -10557,7 +10583,7 @@
       <c r="Y309" s="2"/>
       <c r="Z309" s="2"/>
     </row>
-    <row r="310">
+    <row r="310" ht="24.75" customHeight="1">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -10585,7 +10611,7 @@
       <c r="Y310" s="2"/>
       <c r="Z310" s="2"/>
     </row>
-    <row r="311">
+    <row r="311" ht="24.75" customHeight="1">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -10613,7 +10639,7 @@
       <c r="Y311" s="2"/>
       <c r="Z311" s="2"/>
     </row>
-    <row r="312">
+    <row r="312" ht="24.75" customHeight="1">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -10641,7 +10667,7 @@
       <c r="Y312" s="2"/>
       <c r="Z312" s="2"/>
     </row>
-    <row r="313">
+    <row r="313" ht="24.75" customHeight="1">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -10669,7 +10695,7 @@
       <c r="Y313" s="2"/>
       <c r="Z313" s="2"/>
     </row>
-    <row r="314">
+    <row r="314" ht="24.75" customHeight="1">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -10697,7 +10723,7 @@
       <c r="Y314" s="2"/>
       <c r="Z314" s="2"/>
     </row>
-    <row r="315">
+    <row r="315" ht="24.75" customHeight="1">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -10725,7 +10751,7 @@
       <c r="Y315" s="2"/>
       <c r="Z315" s="2"/>
     </row>
-    <row r="316">
+    <row r="316" ht="24.75" customHeight="1">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -10753,7 +10779,7 @@
       <c r="Y316" s="2"/>
       <c r="Z316" s="2"/>
     </row>
-    <row r="317">
+    <row r="317" ht="24.75" customHeight="1">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -10781,7 +10807,7 @@
       <c r="Y317" s="2"/>
       <c r="Z317" s="2"/>
     </row>
-    <row r="318">
+    <row r="318" ht="24.75" customHeight="1">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -10809,7 +10835,7 @@
       <c r="Y318" s="2"/>
       <c r="Z318" s="2"/>
     </row>
-    <row r="319">
+    <row r="319" ht="24.75" customHeight="1">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -10837,7 +10863,7 @@
       <c r="Y319" s="2"/>
       <c r="Z319" s="2"/>
     </row>
-    <row r="320">
+    <row r="320" ht="24.75" customHeight="1">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -10865,7 +10891,7 @@
       <c r="Y320" s="2"/>
       <c r="Z320" s="2"/>
     </row>
-    <row r="321">
+    <row r="321" ht="24.75" customHeight="1">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -10893,7 +10919,7 @@
       <c r="Y321" s="2"/>
       <c r="Z321" s="2"/>
     </row>
-    <row r="322">
+    <row r="322" ht="24.75" customHeight="1">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -10921,7 +10947,7 @@
       <c r="Y322" s="2"/>
       <c r="Z322" s="2"/>
     </row>
-    <row r="323">
+    <row r="323" ht="24.75" customHeight="1">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -10949,7 +10975,7 @@
       <c r="Y323" s="2"/>
       <c r="Z323" s="2"/>
     </row>
-    <row r="324">
+    <row r="324" ht="24.75" customHeight="1">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -10977,7 +11003,7 @@
       <c r="Y324" s="2"/>
       <c r="Z324" s="2"/>
     </row>
-    <row r="325">
+    <row r="325" ht="24.75" customHeight="1">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -11005,7 +11031,7 @@
       <c r="Y325" s="2"/>
       <c r="Z325" s="2"/>
     </row>
-    <row r="326">
+    <row r="326" ht="24.75" customHeight="1">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -11033,7 +11059,7 @@
       <c r="Y326" s="2"/>
       <c r="Z326" s="2"/>
     </row>
-    <row r="327">
+    <row r="327" ht="24.75" customHeight="1">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -11061,7 +11087,7 @@
       <c r="Y327" s="2"/>
       <c r="Z327" s="2"/>
     </row>
-    <row r="328">
+    <row r="328" ht="24.75" customHeight="1">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -11089,7 +11115,7 @@
       <c r="Y328" s="2"/>
       <c r="Z328" s="2"/>
     </row>
-    <row r="329">
+    <row r="329" ht="24.75" customHeight="1">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -11117,7 +11143,7 @@
       <c r="Y329" s="2"/>
       <c r="Z329" s="2"/>
     </row>
-    <row r="330">
+    <row r="330" ht="24.75" customHeight="1">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -11145,7 +11171,7 @@
       <c r="Y330" s="2"/>
       <c r="Z330" s="2"/>
     </row>
-    <row r="331">
+    <row r="331" ht="24.75" customHeight="1">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -11173,7 +11199,7 @@
       <c r="Y331" s="2"/>
       <c r="Z331" s="2"/>
     </row>
-    <row r="332">
+    <row r="332" ht="24.75" customHeight="1">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -11201,7 +11227,7 @@
       <c r="Y332" s="2"/>
       <c r="Z332" s="2"/>
     </row>
-    <row r="333">
+    <row r="333" ht="24.75" customHeight="1">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -11229,7 +11255,7 @@
       <c r="Y333" s="2"/>
       <c r="Z333" s="2"/>
     </row>
-    <row r="334">
+    <row r="334" ht="24.75" customHeight="1">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -11257,7 +11283,7 @@
       <c r="Y334" s="2"/>
       <c r="Z334" s="2"/>
     </row>
-    <row r="335">
+    <row r="335" ht="24.75" customHeight="1">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -11285,7 +11311,7 @@
       <c r="Y335" s="2"/>
       <c r="Z335" s="2"/>
     </row>
-    <row r="336">
+    <row r="336" ht="24.75" customHeight="1">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -11313,7 +11339,7 @@
       <c r="Y336" s="2"/>
       <c r="Z336" s="2"/>
     </row>
-    <row r="337">
+    <row r="337" ht="24.75" customHeight="1">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -11341,7 +11367,7 @@
       <c r="Y337" s="2"/>
       <c r="Z337" s="2"/>
     </row>
-    <row r="338">
+    <row r="338" ht="24.75" customHeight="1">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -11369,7 +11395,7 @@
       <c r="Y338" s="2"/>
       <c r="Z338" s="2"/>
     </row>
-    <row r="339">
+    <row r="339" ht="24.75" customHeight="1">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -11397,7 +11423,7 @@
       <c r="Y339" s="2"/>
       <c r="Z339" s="2"/>
     </row>
-    <row r="340">
+    <row r="340" ht="24.75" customHeight="1">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -11425,7 +11451,7 @@
       <c r="Y340" s="2"/>
       <c r="Z340" s="2"/>
     </row>
-    <row r="341">
+    <row r="341" ht="24.75" customHeight="1">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -11453,7 +11479,7 @@
       <c r="Y341" s="2"/>
       <c r="Z341" s="2"/>
     </row>
-    <row r="342">
+    <row r="342" ht="24.75" customHeight="1">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -11481,7 +11507,7 @@
       <c r="Y342" s="2"/>
       <c r="Z342" s="2"/>
     </row>
-    <row r="343">
+    <row r="343" ht="24.75" customHeight="1">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -11509,7 +11535,7 @@
       <c r="Y343" s="2"/>
       <c r="Z343" s="2"/>
     </row>
-    <row r="344">
+    <row r="344" ht="24.75" customHeight="1">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -11537,7 +11563,7 @@
       <c r="Y344" s="2"/>
       <c r="Z344" s="2"/>
     </row>
-    <row r="345">
+    <row r="345" ht="24.75" customHeight="1">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -11565,7 +11591,7 @@
       <c r="Y345" s="2"/>
       <c r="Z345" s="2"/>
     </row>
-    <row r="346">
+    <row r="346" ht="24.75" customHeight="1">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -11593,7 +11619,7 @@
       <c r="Y346" s="2"/>
       <c r="Z346" s="2"/>
     </row>
-    <row r="347">
+    <row r="347" ht="24.75" customHeight="1">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -11621,7 +11647,7 @@
       <c r="Y347" s="2"/>
       <c r="Z347" s="2"/>
     </row>
-    <row r="348">
+    <row r="348" ht="24.75" customHeight="1">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -11649,7 +11675,7 @@
       <c r="Y348" s="2"/>
       <c r="Z348" s="2"/>
     </row>
-    <row r="349">
+    <row r="349" ht="24.75" customHeight="1">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -11677,7 +11703,7 @@
       <c r="Y349" s="2"/>
       <c r="Z349" s="2"/>
     </row>
-    <row r="350">
+    <row r="350" ht="24.75" customHeight="1">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -11705,7 +11731,7 @@
       <c r="Y350" s="2"/>
       <c r="Z350" s="2"/>
     </row>
-    <row r="351">
+    <row r="351" ht="24.75" customHeight="1">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -11733,7 +11759,7 @@
       <c r="Y351" s="2"/>
       <c r="Z351" s="2"/>
     </row>
-    <row r="352">
+    <row r="352" ht="24.75" customHeight="1">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -11761,7 +11787,7 @@
       <c r="Y352" s="2"/>
       <c r="Z352" s="2"/>
     </row>
-    <row r="353">
+    <row r="353" ht="24.75" customHeight="1">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -11789,7 +11815,7 @@
       <c r="Y353" s="2"/>
       <c r="Z353" s="2"/>
     </row>
-    <row r="354">
+    <row r="354" ht="24.75" customHeight="1">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -11817,7 +11843,7 @@
       <c r="Y354" s="2"/>
       <c r="Z354" s="2"/>
     </row>
-    <row r="355">
+    <row r="355" ht="24.75" customHeight="1">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -11845,7 +11871,7 @@
       <c r="Y355" s="2"/>
       <c r="Z355" s="2"/>
     </row>
-    <row r="356">
+    <row r="356" ht="24.75" customHeight="1">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -11873,7 +11899,7 @@
       <c r="Y356" s="2"/>
       <c r="Z356" s="2"/>
     </row>
-    <row r="357">
+    <row r="357" ht="24.75" customHeight="1">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -11901,7 +11927,7 @@
       <c r="Y357" s="2"/>
       <c r="Z357" s="2"/>
     </row>
-    <row r="358">
+    <row r="358" ht="24.75" customHeight="1">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -11929,7 +11955,7 @@
       <c r="Y358" s="2"/>
       <c r="Z358" s="2"/>
     </row>
-    <row r="359">
+    <row r="359" ht="24.75" customHeight="1">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -11957,7 +11983,7 @@
       <c r="Y359" s="2"/>
       <c r="Z359" s="2"/>
     </row>
-    <row r="360">
+    <row r="360" ht="24.75" customHeight="1">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -11985,7 +12011,7 @@
       <c r="Y360" s="2"/>
       <c r="Z360" s="2"/>
     </row>
-    <row r="361">
+    <row r="361" ht="24.75" customHeight="1">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -12013,7 +12039,7 @@
       <c r="Y361" s="2"/>
       <c r="Z361" s="2"/>
     </row>
-    <row r="362">
+    <row r="362" ht="24.75" customHeight="1">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -12041,7 +12067,7 @@
       <c r="Y362" s="2"/>
       <c r="Z362" s="2"/>
     </row>
-    <row r="363">
+    <row r="363" ht="24.75" customHeight="1">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -12069,7 +12095,7 @@
       <c r="Y363" s="2"/>
       <c r="Z363" s="2"/>
     </row>
-    <row r="364">
+    <row r="364" ht="24.75" customHeight="1">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -12097,7 +12123,7 @@
       <c r="Y364" s="2"/>
       <c r="Z364" s="2"/>
     </row>
-    <row r="365">
+    <row r="365" ht="24.75" customHeight="1">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -12125,7 +12151,7 @@
       <c r="Y365" s="2"/>
       <c r="Z365" s="2"/>
     </row>
-    <row r="366">
+    <row r="366" ht="24.75" customHeight="1">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -12153,7 +12179,7 @@
       <c r="Y366" s="2"/>
       <c r="Z366" s="2"/>
     </row>
-    <row r="367">
+    <row r="367" ht="24.75" customHeight="1">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -12181,7 +12207,7 @@
       <c r="Y367" s="2"/>
       <c r="Z367" s="2"/>
     </row>
-    <row r="368">
+    <row r="368" ht="24.75" customHeight="1">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -12209,7 +12235,7 @@
       <c r="Y368" s="2"/>
       <c r="Z368" s="2"/>
     </row>
-    <row r="369">
+    <row r="369" ht="24.75" customHeight="1">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -12237,7 +12263,7 @@
       <c r="Y369" s="2"/>
       <c r="Z369" s="2"/>
     </row>
-    <row r="370">
+    <row r="370" ht="24.75" customHeight="1">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -12265,7 +12291,7 @@
       <c r="Y370" s="2"/>
       <c r="Z370" s="2"/>
     </row>
-    <row r="371">
+    <row r="371" ht="24.75" customHeight="1">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -12293,7 +12319,7 @@
       <c r="Y371" s="2"/>
       <c r="Z371" s="2"/>
     </row>
-    <row r="372">
+    <row r="372" ht="24.75" customHeight="1">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -12321,7 +12347,7 @@
       <c r="Y372" s="2"/>
       <c r="Z372" s="2"/>
     </row>
-    <row r="373">
+    <row r="373" ht="24.75" customHeight="1">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -12349,7 +12375,7 @@
       <c r="Y373" s="2"/>
       <c r="Z373" s="2"/>
     </row>
-    <row r="374">
+    <row r="374" ht="24.75" customHeight="1">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -12377,7 +12403,7 @@
       <c r="Y374" s="2"/>
       <c r="Z374" s="2"/>
     </row>
-    <row r="375">
+    <row r="375" ht="24.75" customHeight="1">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -12405,7 +12431,7 @@
       <c r="Y375" s="2"/>
       <c r="Z375" s="2"/>
     </row>
-    <row r="376">
+    <row r="376" ht="24.75" customHeight="1">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -12433,7 +12459,7 @@
       <c r="Y376" s="2"/>
       <c r="Z376" s="2"/>
     </row>
-    <row r="377">
+    <row r="377" ht="24.75" customHeight="1">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -12461,7 +12487,7 @@
       <c r="Y377" s="2"/>
       <c r="Z377" s="2"/>
     </row>
-    <row r="378">
+    <row r="378" ht="24.75" customHeight="1">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -12489,7 +12515,7 @@
       <c r="Y378" s="2"/>
       <c r="Z378" s="2"/>
     </row>
-    <row r="379">
+    <row r="379" ht="24.75" customHeight="1">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -12517,7 +12543,7 @@
       <c r="Y379" s="2"/>
       <c r="Z379" s="2"/>
     </row>
-    <row r="380">
+    <row r="380" ht="24.75" customHeight="1">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -12545,7 +12571,7 @@
       <c r="Y380" s="2"/>
       <c r="Z380" s="2"/>
     </row>
-    <row r="381">
+    <row r="381" ht="24.75" customHeight="1">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -12573,7 +12599,7 @@
       <c r="Y381" s="2"/>
       <c r="Z381" s="2"/>
     </row>
-    <row r="382">
+    <row r="382" ht="24.75" customHeight="1">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -12601,7 +12627,7 @@
       <c r="Y382" s="2"/>
       <c r="Z382" s="2"/>
     </row>
-    <row r="383">
+    <row r="383" ht="24.75" customHeight="1">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -12629,7 +12655,7 @@
       <c r="Y383" s="2"/>
       <c r="Z383" s="2"/>
     </row>
-    <row r="384">
+    <row r="384" ht="24.75" customHeight="1">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -12657,7 +12683,7 @@
       <c r="Y384" s="2"/>
       <c r="Z384" s="2"/>
     </row>
-    <row r="385">
+    <row r="385" ht="24.75" customHeight="1">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -12685,7 +12711,7 @@
       <c r="Y385" s="2"/>
       <c r="Z385" s="2"/>
     </row>
-    <row r="386">
+    <row r="386" ht="24.75" customHeight="1">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -12713,7 +12739,7 @@
       <c r="Y386" s="2"/>
       <c r="Z386" s="2"/>
     </row>
-    <row r="387">
+    <row r="387" ht="24.75" customHeight="1">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -12741,7 +12767,7 @@
       <c r="Y387" s="2"/>
       <c r="Z387" s="2"/>
     </row>
-    <row r="388">
+    <row r="388" ht="24.75" customHeight="1">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -12769,7 +12795,7 @@
       <c r="Y388" s="2"/>
       <c r="Z388" s="2"/>
     </row>
-    <row r="389">
+    <row r="389" ht="24.75" customHeight="1">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -12797,7 +12823,7 @@
       <c r="Y389" s="2"/>
       <c r="Z389" s="2"/>
     </row>
-    <row r="390">
+    <row r="390" ht="24.75" customHeight="1">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -12825,7 +12851,7 @@
       <c r="Y390" s="2"/>
       <c r="Z390" s="2"/>
     </row>
-    <row r="391">
+    <row r="391" ht="24.75" customHeight="1">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -12853,7 +12879,7 @@
       <c r="Y391" s="2"/>
       <c r="Z391" s="2"/>
     </row>
-    <row r="392">
+    <row r="392" ht="24.75" customHeight="1">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -12881,7 +12907,7 @@
       <c r="Y392" s="2"/>
       <c r="Z392" s="2"/>
     </row>
-    <row r="393">
+    <row r="393" ht="24.75" customHeight="1">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -12909,7 +12935,7 @@
       <c r="Y393" s="2"/>
       <c r="Z393" s="2"/>
     </row>
-    <row r="394">
+    <row r="394" ht="24.75" customHeight="1">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -12937,7 +12963,7 @@
       <c r="Y394" s="2"/>
       <c r="Z394" s="2"/>
     </row>
-    <row r="395">
+    <row r="395" ht="24.75" customHeight="1">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -12965,7 +12991,7 @@
       <c r="Y395" s="2"/>
       <c r="Z395" s="2"/>
     </row>
-    <row r="396">
+    <row r="396" ht="24.75" customHeight="1">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -12993,7 +13019,7 @@
       <c r="Y396" s="2"/>
       <c r="Z396" s="2"/>
     </row>
-    <row r="397">
+    <row r="397" ht="24.75" customHeight="1">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -13021,7 +13047,7 @@
       <c r="Y397" s="2"/>
       <c r="Z397" s="2"/>
     </row>
-    <row r="398">
+    <row r="398" ht="24.75" customHeight="1">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -13049,7 +13075,7 @@
       <c r="Y398" s="2"/>
       <c r="Z398" s="2"/>
     </row>
-    <row r="399">
+    <row r="399" ht="24.75" customHeight="1">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -13077,7 +13103,7 @@
       <c r="Y399" s="2"/>
       <c r="Z399" s="2"/>
     </row>
-    <row r="400">
+    <row r="400" ht="24.75" customHeight="1">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -13105,7 +13131,7 @@
       <c r="Y400" s="2"/>
       <c r="Z400" s="2"/>
     </row>
-    <row r="401">
+    <row r="401" ht="24.75" customHeight="1">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -13133,7 +13159,7 @@
       <c r="Y401" s="2"/>
       <c r="Z401" s="2"/>
     </row>
-    <row r="402">
+    <row r="402" ht="24.75" customHeight="1">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -13161,7 +13187,7 @@
       <c r="Y402" s="2"/>
       <c r="Z402" s="2"/>
     </row>
-    <row r="403">
+    <row r="403" ht="24.75" customHeight="1">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -13189,7 +13215,7 @@
       <c r="Y403" s="2"/>
       <c r="Z403" s="2"/>
     </row>
-    <row r="404">
+    <row r="404" ht="24.75" customHeight="1">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -13217,7 +13243,7 @@
       <c r="Y404" s="2"/>
       <c r="Z404" s="2"/>
     </row>
-    <row r="405">
+    <row r="405" ht="24.75" customHeight="1">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -13245,7 +13271,7 @@
       <c r="Y405" s="2"/>
       <c r="Z405" s="2"/>
     </row>
-    <row r="406">
+    <row r="406" ht="24.75" customHeight="1">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -13273,7 +13299,7 @@
       <c r="Y406" s="2"/>
       <c r="Z406" s="2"/>
     </row>
-    <row r="407">
+    <row r="407" ht="24.75" customHeight="1">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -13301,7 +13327,7 @@
       <c r="Y407" s="2"/>
       <c r="Z407" s="2"/>
     </row>
-    <row r="408">
+    <row r="408" ht="24.75" customHeight="1">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -13329,7 +13355,7 @@
       <c r="Y408" s="2"/>
       <c r="Z408" s="2"/>
     </row>
-    <row r="409">
+    <row r="409" ht="24.75" customHeight="1">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -13357,7 +13383,7 @@
       <c r="Y409" s="2"/>
       <c r="Z409" s="2"/>
     </row>
-    <row r="410">
+    <row r="410" ht="24.75" customHeight="1">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -13385,7 +13411,7 @@
       <c r="Y410" s="2"/>
       <c r="Z410" s="2"/>
     </row>
-    <row r="411">
+    <row r="411" ht="24.75" customHeight="1">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -13413,7 +13439,7 @@
       <c r="Y411" s="2"/>
       <c r="Z411" s="2"/>
     </row>
-    <row r="412">
+    <row r="412" ht="24.75" customHeight="1">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -13441,7 +13467,7 @@
       <c r="Y412" s="2"/>
       <c r="Z412" s="2"/>
     </row>
-    <row r="413">
+    <row r="413" ht="24.75" customHeight="1">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -13469,7 +13495,7 @@
       <c r="Y413" s="2"/>
       <c r="Z413" s="2"/>
     </row>
-    <row r="414">
+    <row r="414" ht="24.75" customHeight="1">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -13497,7 +13523,7 @@
       <c r="Y414" s="2"/>
       <c r="Z414" s="2"/>
     </row>
-    <row r="415">
+    <row r="415" ht="24.75" customHeight="1">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -13525,7 +13551,7 @@
       <c r="Y415" s="2"/>
       <c r="Z415" s="2"/>
     </row>
-    <row r="416">
+    <row r="416" ht="24.75" customHeight="1">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -13553,7 +13579,7 @@
       <c r="Y416" s="2"/>
       <c r="Z416" s="2"/>
     </row>
-    <row r="417">
+    <row r="417" ht="24.75" customHeight="1">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -13581,7 +13607,7 @@
       <c r="Y417" s="2"/>
       <c r="Z417" s="2"/>
     </row>
-    <row r="418">
+    <row r="418" ht="24.75" customHeight="1">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -13609,7 +13635,7 @@
       <c r="Y418" s="2"/>
       <c r="Z418" s="2"/>
     </row>
-    <row r="419">
+    <row r="419" ht="24.75" customHeight="1">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -13637,7 +13663,7 @@
       <c r="Y419" s="2"/>
       <c r="Z419" s="2"/>
     </row>
-    <row r="420">
+    <row r="420" ht="24.75" customHeight="1">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -13665,7 +13691,7 @@
       <c r="Y420" s="2"/>
       <c r="Z420" s="2"/>
     </row>
-    <row r="421">
+    <row r="421" ht="24.75" customHeight="1">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -13693,7 +13719,7 @@
       <c r="Y421" s="2"/>
       <c r="Z421" s="2"/>
     </row>
-    <row r="422">
+    <row r="422" ht="24.75" customHeight="1">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -13721,7 +13747,7 @@
       <c r="Y422" s="2"/>
       <c r="Z422" s="2"/>
     </row>
-    <row r="423">
+    <row r="423" ht="24.75" customHeight="1">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -13749,7 +13775,7 @@
       <c r="Y423" s="2"/>
       <c r="Z423" s="2"/>
     </row>
-    <row r="424">
+    <row r="424" ht="24.75" customHeight="1">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -13777,7 +13803,7 @@
       <c r="Y424" s="2"/>
       <c r="Z424" s="2"/>
     </row>
-    <row r="425">
+    <row r="425" ht="24.75" customHeight="1">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -13805,7 +13831,7 @@
       <c r="Y425" s="2"/>
       <c r="Z425" s="2"/>
     </row>
-    <row r="426">
+    <row r="426" ht="24.75" customHeight="1">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -13833,7 +13859,7 @@
       <c r="Y426" s="2"/>
       <c r="Z426" s="2"/>
     </row>
-    <row r="427">
+    <row r="427" ht="24.75" customHeight="1">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -13861,7 +13887,7 @@
       <c r="Y427" s="2"/>
       <c r="Z427" s="2"/>
     </row>
-    <row r="428">
+    <row r="428" ht="24.75" customHeight="1">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -13889,7 +13915,7 @@
       <c r="Y428" s="2"/>
       <c r="Z428" s="2"/>
     </row>
-    <row r="429">
+    <row r="429" ht="24.75" customHeight="1">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -13917,7 +13943,7 @@
       <c r="Y429" s="2"/>
       <c r="Z429" s="2"/>
     </row>
-    <row r="430">
+    <row r="430" ht="24.75" customHeight="1">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -13945,7 +13971,7 @@
       <c r="Y430" s="2"/>
       <c r="Z430" s="2"/>
     </row>
-    <row r="431">
+    <row r="431" ht="24.75" customHeight="1">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -13973,7 +13999,7 @@
       <c r="Y431" s="2"/>
       <c r="Z431" s="2"/>
     </row>
-    <row r="432">
+    <row r="432" ht="24.75" customHeight="1">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -14001,7 +14027,7 @@
       <c r="Y432" s="2"/>
       <c r="Z432" s="2"/>
     </row>
-    <row r="433">
+    <row r="433" ht="24.75" customHeight="1">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -14029,7 +14055,7 @@
       <c r="Y433" s="2"/>
       <c r="Z433" s="2"/>
     </row>
-    <row r="434">
+    <row r="434" ht="24.75" customHeight="1">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -14057,7 +14083,7 @@
       <c r="Y434" s="2"/>
       <c r="Z434" s="2"/>
     </row>
-    <row r="435">
+    <row r="435" ht="24.75" customHeight="1">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -14085,7 +14111,7 @@
       <c r="Y435" s="2"/>
       <c r="Z435" s="2"/>
     </row>
-    <row r="436">
+    <row r="436" ht="24.75" customHeight="1">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -14113,7 +14139,7 @@
       <c r="Y436" s="2"/>
       <c r="Z436" s="2"/>
     </row>
-    <row r="437">
+    <row r="437" ht="24.75" customHeight="1">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -14141,7 +14167,7 @@
       <c r="Y437" s="2"/>
       <c r="Z437" s="2"/>
     </row>
-    <row r="438">
+    <row r="438" ht="24.75" customHeight="1">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -14169,7 +14195,7 @@
       <c r="Y438" s="2"/>
       <c r="Z438" s="2"/>
     </row>
-    <row r="439">
+    <row r="439" ht="24.75" customHeight="1">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -14197,7 +14223,7 @@
       <c r="Y439" s="2"/>
       <c r="Z439" s="2"/>
     </row>
-    <row r="440">
+    <row r="440" ht="24.75" customHeight="1">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -14225,7 +14251,7 @@
       <c r="Y440" s="2"/>
       <c r="Z440" s="2"/>
     </row>
-    <row r="441">
+    <row r="441" ht="24.75" customHeight="1">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -14253,7 +14279,7 @@
       <c r="Y441" s="2"/>
       <c r="Z441" s="2"/>
     </row>
-    <row r="442">
+    <row r="442" ht="24.75" customHeight="1">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -14281,7 +14307,7 @@
       <c r="Y442" s="2"/>
       <c r="Z442" s="2"/>
     </row>
-    <row r="443">
+    <row r="443" ht="24.75" customHeight="1">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -14309,7 +14335,7 @@
       <c r="Y443" s="2"/>
       <c r="Z443" s="2"/>
     </row>
-    <row r="444">
+    <row r="444" ht="24.75" customHeight="1">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -14337,7 +14363,7 @@
       <c r="Y444" s="2"/>
       <c r="Z444" s="2"/>
     </row>
-    <row r="445">
+    <row r="445" ht="24.75" customHeight="1">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -14365,7 +14391,7 @@
       <c r="Y445" s="2"/>
       <c r="Z445" s="2"/>
     </row>
-    <row r="446">
+    <row r="446" ht="24.75" customHeight="1">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -14393,7 +14419,7 @@
       <c r="Y446" s="2"/>
       <c r="Z446" s="2"/>
     </row>
-    <row r="447">
+    <row r="447" ht="24.75" customHeight="1">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -14421,7 +14447,7 @@
       <c r="Y447" s="2"/>
       <c r="Z447" s="2"/>
     </row>
-    <row r="448">
+    <row r="448" ht="24.75" customHeight="1">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -14449,7 +14475,7 @@
       <c r="Y448" s="2"/>
       <c r="Z448" s="2"/>
     </row>
-    <row r="449">
+    <row r="449" ht="24.75" customHeight="1">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -14477,7 +14503,7 @@
       <c r="Y449" s="2"/>
       <c r="Z449" s="2"/>
     </row>
-    <row r="450">
+    <row r="450" ht="24.75" customHeight="1">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -14505,7 +14531,7 @@
       <c r="Y450" s="2"/>
       <c r="Z450" s="2"/>
     </row>
-    <row r="451">
+    <row r="451" ht="24.75" customHeight="1">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -14533,7 +14559,7 @@
       <c r="Y451" s="2"/>
       <c r="Z451" s="2"/>
     </row>
-    <row r="452">
+    <row r="452" ht="24.75" customHeight="1">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -14561,7 +14587,7 @@
       <c r="Y452" s="2"/>
       <c r="Z452" s="2"/>
     </row>
-    <row r="453">
+    <row r="453" ht="24.75" customHeight="1">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -14589,7 +14615,7 @@
       <c r="Y453" s="2"/>
       <c r="Z453" s="2"/>
     </row>
-    <row r="454">
+    <row r="454" ht="24.75" customHeight="1">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -14617,7 +14643,7 @@
       <c r="Y454" s="2"/>
       <c r="Z454" s="2"/>
     </row>
-    <row r="455">
+    <row r="455" ht="24.75" customHeight="1">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -14645,7 +14671,7 @@
       <c r="Y455" s="2"/>
       <c r="Z455" s="2"/>
     </row>
-    <row r="456">
+    <row r="456" ht="24.75" customHeight="1">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -14673,7 +14699,7 @@
       <c r="Y456" s="2"/>
       <c r="Z456" s="2"/>
     </row>
-    <row r="457">
+    <row r="457" ht="24.75" customHeight="1">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -14701,7 +14727,7 @@
       <c r="Y457" s="2"/>
       <c r="Z457" s="2"/>
     </row>
-    <row r="458">
+    <row r="458" ht="24.75" customHeight="1">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -14729,7 +14755,7 @@
       <c r="Y458" s="2"/>
       <c r="Z458" s="2"/>
     </row>
-    <row r="459">
+    <row r="459" ht="24.75" customHeight="1">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -14757,7 +14783,7 @@
       <c r="Y459" s="2"/>
       <c r="Z459" s="2"/>
     </row>
-    <row r="460">
+    <row r="460" ht="24.75" customHeight="1">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -14785,7 +14811,7 @@
       <c r="Y460" s="2"/>
       <c r="Z460" s="2"/>
     </row>
-    <row r="461">
+    <row r="461" ht="24.75" customHeight="1">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -14813,7 +14839,7 @@
       <c r="Y461" s="2"/>
       <c r="Z461" s="2"/>
     </row>
-    <row r="462">
+    <row r="462" ht="24.75" customHeight="1">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -14841,7 +14867,7 @@
       <c r="Y462" s="2"/>
       <c r="Z462" s="2"/>
     </row>
-    <row r="463">
+    <row r="463" ht="24.75" customHeight="1">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -14869,7 +14895,7 @@
       <c r="Y463" s="2"/>
       <c r="Z463" s="2"/>
     </row>
-    <row r="464">
+    <row r="464" ht="24.75" customHeight="1">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -14897,7 +14923,7 @@
       <c r="Y464" s="2"/>
       <c r="Z464" s="2"/>
     </row>
-    <row r="465">
+    <row r="465" ht="24.75" customHeight="1">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -14925,7 +14951,7 @@
       <c r="Y465" s="2"/>
       <c r="Z465" s="2"/>
     </row>
-    <row r="466">
+    <row r="466" ht="24.75" customHeight="1">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -14953,7 +14979,7 @@
       <c r="Y466" s="2"/>
       <c r="Z466" s="2"/>
     </row>
-    <row r="467">
+    <row r="467" ht="24.75" customHeight="1">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -14981,7 +15007,7 @@
       <c r="Y467" s="2"/>
       <c r="Z467" s="2"/>
     </row>
-    <row r="468">
+    <row r="468" ht="24.75" customHeight="1">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -15009,7 +15035,7 @@
       <c r="Y468" s="2"/>
       <c r="Z468" s="2"/>
     </row>
-    <row r="469">
+    <row r="469" ht="24.75" customHeight="1">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -15037,7 +15063,7 @@
       <c r="Y469" s="2"/>
       <c r="Z469" s="2"/>
     </row>
-    <row r="470">
+    <row r="470" ht="24.75" customHeight="1">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -15065,7 +15091,7 @@
       <c r="Y470" s="2"/>
       <c r="Z470" s="2"/>
     </row>
-    <row r="471">
+    <row r="471" ht="24.75" customHeight="1">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -15093,7 +15119,7 @@
       <c r="Y471" s="2"/>
       <c r="Z471" s="2"/>
     </row>
-    <row r="472">
+    <row r="472" ht="24.75" customHeight="1">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -15121,7 +15147,7 @@
       <c r="Y472" s="2"/>
       <c r="Z472" s="2"/>
     </row>
-    <row r="473">
+    <row r="473" ht="24.75" customHeight="1">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -15149,7 +15175,7 @@
       <c r="Y473" s="2"/>
       <c r="Z473" s="2"/>
     </row>
-    <row r="474">
+    <row r="474" ht="24.75" customHeight="1">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -15177,7 +15203,7 @@
       <c r="Y474" s="2"/>
       <c r="Z474" s="2"/>
     </row>
-    <row r="475">
+    <row r="475" ht="24.75" customHeight="1">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -15205,7 +15231,7 @@
       <c r="Y475" s="2"/>
       <c r="Z475" s="2"/>
     </row>
-    <row r="476">
+    <row r="476" ht="24.75" customHeight="1">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -15233,7 +15259,7 @@
       <c r="Y476" s="2"/>
       <c r="Z476" s="2"/>
     </row>
-    <row r="477">
+    <row r="477" ht="24.75" customHeight="1">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -15261,7 +15287,7 @@
       <c r="Y477" s="2"/>
       <c r="Z477" s="2"/>
     </row>
-    <row r="478">
+    <row r="478" ht="24.75" customHeight="1">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -15289,7 +15315,7 @@
       <c r="Y478" s="2"/>
       <c r="Z478" s="2"/>
     </row>
-    <row r="479">
+    <row r="479" ht="24.75" customHeight="1">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -15317,7 +15343,7 @@
       <c r="Y479" s="2"/>
       <c r="Z479" s="2"/>
     </row>
-    <row r="480">
+    <row r="480" ht="24.75" customHeight="1">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -15345,7 +15371,7 @@
       <c r="Y480" s="2"/>
       <c r="Z480" s="2"/>
     </row>
-    <row r="481">
+    <row r="481" ht="24.75" customHeight="1">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -15373,7 +15399,7 @@
       <c r="Y481" s="2"/>
       <c r="Z481" s="2"/>
     </row>
-    <row r="482">
+    <row r="482" ht="24.75" customHeight="1">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -15401,7 +15427,7 @@
       <c r="Y482" s="2"/>
       <c r="Z482" s="2"/>
     </row>
-    <row r="483">
+    <row r="483" ht="24.75" customHeight="1">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -15429,7 +15455,7 @@
       <c r="Y483" s="2"/>
       <c r="Z483" s="2"/>
     </row>
-    <row r="484">
+    <row r="484" ht="24.75" customHeight="1">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -15457,7 +15483,7 @@
       <c r="Y484" s="2"/>
       <c r="Z484" s="2"/>
     </row>
-    <row r="485">
+    <row r="485" ht="24.75" customHeight="1">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -15485,7 +15511,7 @@
       <c r="Y485" s="2"/>
       <c r="Z485" s="2"/>
     </row>
-    <row r="486">
+    <row r="486" ht="24.75" customHeight="1">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -15513,7 +15539,7 @@
       <c r="Y486" s="2"/>
       <c r="Z486" s="2"/>
     </row>
-    <row r="487">
+    <row r="487" ht="24.75" customHeight="1">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -15541,7 +15567,7 @@
       <c r="Y487" s="2"/>
       <c r="Z487" s="2"/>
     </row>
-    <row r="488">
+    <row r="488" ht="24.75" customHeight="1">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -15569,7 +15595,7 @@
       <c r="Y488" s="2"/>
       <c r="Z488" s="2"/>
     </row>
-    <row r="489">
+    <row r="489" ht="24.75" customHeight="1">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -15597,7 +15623,7 @@
       <c r="Y489" s="2"/>
       <c r="Z489" s="2"/>
     </row>
-    <row r="490">
+    <row r="490" ht="24.75" customHeight="1">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -15625,7 +15651,7 @@
       <c r="Y490" s="2"/>
       <c r="Z490" s="2"/>
     </row>
-    <row r="491">
+    <row r="491" ht="24.75" customHeight="1">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -15653,7 +15679,7 @@
       <c r="Y491" s="2"/>
       <c r="Z491" s="2"/>
     </row>
-    <row r="492">
+    <row r="492" ht="24.75" customHeight="1">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -15681,7 +15707,7 @@
       <c r="Y492" s="2"/>
       <c r="Z492" s="2"/>
     </row>
-    <row r="493">
+    <row r="493" ht="24.75" customHeight="1">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -15709,7 +15735,7 @@
       <c r="Y493" s="2"/>
       <c r="Z493" s="2"/>
     </row>
-    <row r="494">
+    <row r="494" ht="24.75" customHeight="1">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -15737,7 +15763,7 @@
       <c r="Y494" s="2"/>
       <c r="Z494" s="2"/>
     </row>
-    <row r="495">
+    <row r="495" ht="24.75" customHeight="1">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -15765,7 +15791,7 @@
       <c r="Y495" s="2"/>
       <c r="Z495" s="2"/>
     </row>
-    <row r="496">
+    <row r="496" ht="24.75" customHeight="1">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -15793,7 +15819,7 @@
       <c r="Y496" s="2"/>
       <c r="Z496" s="2"/>
     </row>
-    <row r="497">
+    <row r="497" ht="24.75" customHeight="1">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -15821,7 +15847,7 @@
       <c r="Y497" s="2"/>
       <c r="Z497" s="2"/>
     </row>
-    <row r="498">
+    <row r="498" ht="24.75" customHeight="1">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -15849,7 +15875,7 @@
       <c r="Y498" s="2"/>
       <c r="Z498" s="2"/>
     </row>
-    <row r="499">
+    <row r="499" ht="24.75" customHeight="1">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -15877,7 +15903,7 @@
       <c r="Y499" s="2"/>
       <c r="Z499" s="2"/>
     </row>
-    <row r="500">
+    <row r="500" ht="24.75" customHeight="1">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -15905,7 +15931,7 @@
       <c r="Y500" s="2"/>
       <c r="Z500" s="2"/>
     </row>
-    <row r="501">
+    <row r="501" ht="24.75" customHeight="1">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -15933,7 +15959,7 @@
       <c r="Y501" s="2"/>
       <c r="Z501" s="2"/>
     </row>
-    <row r="502">
+    <row r="502" ht="24.75" customHeight="1">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -15961,7 +15987,7 @@
       <c r="Y502" s="2"/>
       <c r="Z502" s="2"/>
     </row>
-    <row r="503">
+    <row r="503" ht="24.75" customHeight="1">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -15989,7 +16015,7 @@
       <c r="Y503" s="2"/>
       <c r="Z503" s="2"/>
     </row>
-    <row r="504">
+    <row r="504" ht="24.75" customHeight="1">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -16017,7 +16043,7 @@
       <c r="Y504" s="2"/>
       <c r="Z504" s="2"/>
     </row>
-    <row r="505">
+    <row r="505" ht="24.75" customHeight="1">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -16045,7 +16071,7 @@
       <c r="Y505" s="2"/>
       <c r="Z505" s="2"/>
     </row>
-    <row r="506">
+    <row r="506" ht="24.75" customHeight="1">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -16073,7 +16099,7 @@
       <c r="Y506" s="2"/>
       <c r="Z506" s="2"/>
     </row>
-    <row r="507">
+    <row r="507" ht="24.75" customHeight="1">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -16101,7 +16127,7 @@
       <c r="Y507" s="2"/>
       <c r="Z507" s="2"/>
     </row>
-    <row r="508">
+    <row r="508" ht="24.75" customHeight="1">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -16129,7 +16155,7 @@
       <c r="Y508" s="2"/>
       <c r="Z508" s="2"/>
     </row>
-    <row r="509">
+    <row r="509" ht="24.75" customHeight="1">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -16157,7 +16183,7 @@
       <c r="Y509" s="2"/>
       <c r="Z509" s="2"/>
     </row>
-    <row r="510">
+    <row r="510" ht="24.75" customHeight="1">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -16185,7 +16211,7 @@
       <c r="Y510" s="2"/>
       <c r="Z510" s="2"/>
     </row>
-    <row r="511">
+    <row r="511" ht="24.75" customHeight="1">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -16213,7 +16239,7 @@
       <c r="Y511" s="2"/>
       <c r="Z511" s="2"/>
     </row>
-    <row r="512">
+    <row r="512" ht="24.75" customHeight="1">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -16241,7 +16267,7 @@
       <c r="Y512" s="2"/>
       <c r="Z512" s="2"/>
     </row>
-    <row r="513">
+    <row r="513" ht="24.75" customHeight="1">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -16269,7 +16295,7 @@
       <c r="Y513" s="2"/>
       <c r="Z513" s="2"/>
     </row>
-    <row r="514">
+    <row r="514" ht="24.75" customHeight="1">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -16297,7 +16323,7 @@
       <c r="Y514" s="2"/>
       <c r="Z514" s="2"/>
     </row>
-    <row r="515">
+    <row r="515" ht="24.75" customHeight="1">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -16325,7 +16351,7 @@
       <c r="Y515" s="2"/>
       <c r="Z515" s="2"/>
     </row>
-    <row r="516">
+    <row r="516" ht="24.75" customHeight="1">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -16353,7 +16379,7 @@
       <c r="Y516" s="2"/>
       <c r="Z516" s="2"/>
     </row>
-    <row r="517">
+    <row r="517" ht="24.75" customHeight="1">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -16381,7 +16407,7 @@
       <c r="Y517" s="2"/>
       <c r="Z517" s="2"/>
     </row>
-    <row r="518">
+    <row r="518" ht="24.75" customHeight="1">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -16409,7 +16435,7 @@
       <c r="Y518" s="2"/>
       <c r="Z518" s="2"/>
     </row>
-    <row r="519">
+    <row r="519" ht="24.75" customHeight="1">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -16437,7 +16463,7 @@
       <c r="Y519" s="2"/>
       <c r="Z519" s="2"/>
     </row>
-    <row r="520">
+    <row r="520" ht="24.75" customHeight="1">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -16465,7 +16491,7 @@
       <c r="Y520" s="2"/>
       <c r="Z520" s="2"/>
     </row>
-    <row r="521">
+    <row r="521" ht="24.75" customHeight="1">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -16493,7 +16519,7 @@
       <c r="Y521" s="2"/>
       <c r="Z521" s="2"/>
     </row>
-    <row r="522">
+    <row r="522" ht="24.75" customHeight="1">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -16521,7 +16547,7 @@
       <c r="Y522" s="2"/>
       <c r="Z522" s="2"/>
     </row>
-    <row r="523">
+    <row r="523" ht="24.75" customHeight="1">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -16549,7 +16575,7 @@
       <c r="Y523" s="2"/>
       <c r="Z523" s="2"/>
     </row>
-    <row r="524">
+    <row r="524" ht="24.75" customHeight="1">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -16577,7 +16603,7 @@
       <c r="Y524" s="2"/>
       <c r="Z524" s="2"/>
     </row>
-    <row r="525">
+    <row r="525" ht="24.75" customHeight="1">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -16605,7 +16631,7 @@
       <c r="Y525" s="2"/>
       <c r="Z525" s="2"/>
     </row>
-    <row r="526">
+    <row r="526" ht="24.75" customHeight="1">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -16633,7 +16659,7 @@
       <c r="Y526" s="2"/>
       <c r="Z526" s="2"/>
     </row>
-    <row r="527">
+    <row r="527" ht="24.75" customHeight="1">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -16661,7 +16687,7 @@
       <c r="Y527" s="2"/>
       <c r="Z527" s="2"/>
     </row>
-    <row r="528">
+    <row r="528" ht="24.75" customHeight="1">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -16689,7 +16715,7 @@
       <c r="Y528" s="2"/>
       <c r="Z528" s="2"/>
     </row>
-    <row r="529">
+    <row r="529" ht="24.75" customHeight="1">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -16717,7 +16743,7 @@
       <c r="Y529" s="2"/>
       <c r="Z529" s="2"/>
     </row>
-    <row r="530">
+    <row r="530" ht="24.75" customHeight="1">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -16745,7 +16771,7 @@
       <c r="Y530" s="2"/>
       <c r="Z530" s="2"/>
     </row>
-    <row r="531">
+    <row r="531" ht="24.75" customHeight="1">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -16773,7 +16799,7 @@
       <c r="Y531" s="2"/>
       <c r="Z531" s="2"/>
     </row>
-    <row r="532">
+    <row r="532" ht="24.75" customHeight="1">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -16801,7 +16827,7 @@
       <c r="Y532" s="2"/>
       <c r="Z532" s="2"/>
     </row>
-    <row r="533">
+    <row r="533" ht="24.75" customHeight="1">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -16829,7 +16855,7 @@
       <c r="Y533" s="2"/>
       <c r="Z533" s="2"/>
     </row>
-    <row r="534">
+    <row r="534" ht="24.75" customHeight="1">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -16857,7 +16883,7 @@
       <c r="Y534" s="2"/>
       <c r="Z534" s="2"/>
     </row>
-    <row r="535">
+    <row r="535" ht="24.75" customHeight="1">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -16885,7 +16911,7 @@
       <c r="Y535" s="2"/>
       <c r="Z535" s="2"/>
     </row>
-    <row r="536">
+    <row r="536" ht="24.75" customHeight="1">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -16913,7 +16939,7 @@
       <c r="Y536" s="2"/>
       <c r="Z536" s="2"/>
     </row>
-    <row r="537">
+    <row r="537" ht="24.75" customHeight="1">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -16941,7 +16967,7 @@
       <c r="Y537" s="2"/>
       <c r="Z537" s="2"/>
     </row>
-    <row r="538">
+    <row r="538" ht="24.75" customHeight="1">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -16969,7 +16995,7 @@
       <c r="Y538" s="2"/>
       <c r="Z538" s="2"/>
     </row>
-    <row r="539">
+    <row r="539" ht="24.75" customHeight="1">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -16997,7 +17023,7 @@
       <c r="Y539" s="2"/>
       <c r="Z539" s="2"/>
     </row>
-    <row r="540">
+    <row r="540" ht="24.75" customHeight="1">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -17025,7 +17051,7 @@
       <c r="Y540" s="2"/>
       <c r="Z540" s="2"/>
     </row>
-    <row r="541">
+    <row r="541" ht="24.75" customHeight="1">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -17053,7 +17079,7 @@
       <c r="Y541" s="2"/>
       <c r="Z541" s="2"/>
     </row>
-    <row r="542">
+    <row r="542" ht="24.75" customHeight="1">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -17081,7 +17107,7 @@
       <c r="Y542" s="2"/>
       <c r="Z542" s="2"/>
     </row>
-    <row r="543">
+    <row r="543" ht="24.75" customHeight="1">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -17109,7 +17135,7 @@
       <c r="Y543" s="2"/>
       <c r="Z543" s="2"/>
     </row>
-    <row r="544">
+    <row r="544" ht="24.75" customHeight="1">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -17137,7 +17163,7 @@
       <c r="Y544" s="2"/>
       <c r="Z544" s="2"/>
     </row>
-    <row r="545">
+    <row r="545" ht="24.75" customHeight="1">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -17165,7 +17191,7 @@
       <c r="Y545" s="2"/>
       <c r="Z545" s="2"/>
     </row>
-    <row r="546">
+    <row r="546" ht="24.75" customHeight="1">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -17193,7 +17219,7 @@
       <c r="Y546" s="2"/>
       <c r="Z546" s="2"/>
     </row>
-    <row r="547">
+    <row r="547" ht="24.75" customHeight="1">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -17221,7 +17247,7 @@
       <c r="Y547" s="2"/>
       <c r="Z547" s="2"/>
     </row>
-    <row r="548">
+    <row r="548" ht="24.75" customHeight="1">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -17249,7 +17275,7 @@
       <c r="Y548" s="2"/>
       <c r="Z548" s="2"/>
     </row>
-    <row r="549">
+    <row r="549" ht="24.75" customHeight="1">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -17277,7 +17303,7 @@
       <c r="Y549" s="2"/>
       <c r="Z549" s="2"/>
     </row>
-    <row r="550">
+    <row r="550" ht="24.75" customHeight="1">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -17305,7 +17331,7 @@
       <c r="Y550" s="2"/>
       <c r="Z550" s="2"/>
     </row>
-    <row r="551">
+    <row r="551" ht="24.75" customHeight="1">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -17333,7 +17359,7 @@
       <c r="Y551" s="2"/>
       <c r="Z551" s="2"/>
     </row>
-    <row r="552">
+    <row r="552" ht="24.75" customHeight="1">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -17361,7 +17387,7 @@
       <c r="Y552" s="2"/>
       <c r="Z552" s="2"/>
     </row>
-    <row r="553">
+    <row r="553" ht="24.75" customHeight="1">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -17389,7 +17415,7 @@
       <c r="Y553" s="2"/>
       <c r="Z553" s="2"/>
     </row>
-    <row r="554">
+    <row r="554" ht="24.75" customHeight="1">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -17417,7 +17443,7 @@
       <c r="Y554" s="2"/>
       <c r="Z554" s="2"/>
     </row>
-    <row r="555">
+    <row r="555" ht="24.75" customHeight="1">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -17445,7 +17471,7 @@
       <c r="Y555" s="2"/>
       <c r="Z555" s="2"/>
     </row>
-    <row r="556">
+    <row r="556" ht="24.75" customHeight="1">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -17473,7 +17499,7 @@
       <c r="Y556" s="2"/>
       <c r="Z556" s="2"/>
     </row>
-    <row r="557">
+    <row r="557" ht="24.75" customHeight="1">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -17501,7 +17527,7 @@
       <c r="Y557" s="2"/>
       <c r="Z557" s="2"/>
     </row>
-    <row r="558">
+    <row r="558" ht="24.75" customHeight="1">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -17529,7 +17555,7 @@
       <c r="Y558" s="2"/>
       <c r="Z558" s="2"/>
     </row>
-    <row r="559">
+    <row r="559" ht="24.75" customHeight="1">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -17557,7 +17583,7 @@
       <c r="Y559" s="2"/>
       <c r="Z559" s="2"/>
     </row>
-    <row r="560">
+    <row r="560" ht="24.75" customHeight="1">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -17585,7 +17611,7 @@
       <c r="Y560" s="2"/>
       <c r="Z560" s="2"/>
     </row>
-    <row r="561">
+    <row r="561" ht="24.75" customHeight="1">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -17613,7 +17639,7 @@
       <c r="Y561" s="2"/>
       <c r="Z561" s="2"/>
     </row>
-    <row r="562">
+    <row r="562" ht="24.75" customHeight="1">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -17641,7 +17667,7 @@
       <c r="Y562" s="2"/>
       <c r="Z562" s="2"/>
     </row>
-    <row r="563">
+    <row r="563" ht="24.75" customHeight="1">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -17669,7 +17695,7 @@
       <c r="Y563" s="2"/>
       <c r="Z563" s="2"/>
     </row>
-    <row r="564">
+    <row r="564" ht="24.75" customHeight="1">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -17697,7 +17723,7 @@
       <c r="Y564" s="2"/>
       <c r="Z564" s="2"/>
     </row>
-    <row r="565">
+    <row r="565" ht="24.75" customHeight="1">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -17725,7 +17751,7 @@
       <c r="Y565" s="2"/>
       <c r="Z565" s="2"/>
     </row>
-    <row r="566">
+    <row r="566" ht="24.75" customHeight="1">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -17753,7 +17779,7 @@
       <c r="Y566" s="2"/>
       <c r="Z566" s="2"/>
     </row>
-    <row r="567">
+    <row r="567" ht="24.75" customHeight="1">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -17781,7 +17807,7 @@
       <c r="Y567" s="2"/>
       <c r="Z567" s="2"/>
     </row>
-    <row r="568">
+    <row r="568" ht="24.75" customHeight="1">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -17809,7 +17835,7 @@
       <c r="Y568" s="2"/>
       <c r="Z568" s="2"/>
     </row>
-    <row r="569">
+    <row r="569" ht="24.75" customHeight="1">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -17837,7 +17863,7 @@
       <c r="Y569" s="2"/>
       <c r="Z569" s="2"/>
     </row>
-    <row r="570">
+    <row r="570" ht="24.75" customHeight="1">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -17865,7 +17891,7 @@
       <c r="Y570" s="2"/>
       <c r="Z570" s="2"/>
     </row>
-    <row r="571">
+    <row r="571" ht="24.75" customHeight="1">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -17893,7 +17919,7 @@
       <c r="Y571" s="2"/>
       <c r="Z571" s="2"/>
     </row>
-    <row r="572">
+    <row r="572" ht="24.75" customHeight="1">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -17921,7 +17947,7 @@
       <c r="Y572" s="2"/>
       <c r="Z572" s="2"/>
     </row>
-    <row r="573">
+    <row r="573" ht="24.75" customHeight="1">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -17949,7 +17975,7 @@
       <c r="Y573" s="2"/>
       <c r="Z573" s="2"/>
     </row>
-    <row r="574">
+    <row r="574" ht="24.75" customHeight="1">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -17977,7 +18003,7 @@
       <c r="Y574" s="2"/>
       <c r="Z574" s="2"/>
     </row>
-    <row r="575">
+    <row r="575" ht="24.75" customHeight="1">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -18005,7 +18031,7 @@
       <c r="Y575" s="2"/>
       <c r="Z575" s="2"/>
     </row>
-    <row r="576">
+    <row r="576" ht="24.75" customHeight="1">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -18033,7 +18059,7 @@
       <c r="Y576" s="2"/>
       <c r="Z576" s="2"/>
     </row>
-    <row r="577">
+    <row r="577" ht="24.75" customHeight="1">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -18061,7 +18087,7 @@
       <c r="Y577" s="2"/>
       <c r="Z577" s="2"/>
     </row>
-    <row r="578">
+    <row r="578" ht="24.75" customHeight="1">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -18089,7 +18115,7 @@
       <c r="Y578" s="2"/>
       <c r="Z578" s="2"/>
     </row>
-    <row r="579">
+    <row r="579" ht="24.75" customHeight="1">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -18117,7 +18143,7 @@
       <c r="Y579" s="2"/>
       <c r="Z579" s="2"/>
     </row>
-    <row r="580">
+    <row r="580" ht="24.75" customHeight="1">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -18145,7 +18171,7 @@
       <c r="Y580" s="2"/>
       <c r="Z580" s="2"/>
     </row>
-    <row r="581">
+    <row r="581" ht="24.75" customHeight="1">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -18173,7 +18199,7 @@
       <c r="Y581" s="2"/>
       <c r="Z581" s="2"/>
     </row>
-    <row r="582">
+    <row r="582" ht="24.75" customHeight="1">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -18201,7 +18227,7 @@
       <c r="Y582" s="2"/>
       <c r="Z582" s="2"/>
     </row>
-    <row r="583">
+    <row r="583" ht="24.75" customHeight="1">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -18229,7 +18255,7 @@
       <c r="Y583" s="2"/>
       <c r="Z583" s="2"/>
     </row>
-    <row r="584">
+    <row r="584" ht="24.75" customHeight="1">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -18257,7 +18283,7 @@
       <c r="Y584" s="2"/>
       <c r="Z584" s="2"/>
     </row>
-    <row r="585">
+    <row r="585" ht="24.75" customHeight="1">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -18285,7 +18311,7 @@
       <c r="Y585" s="2"/>
       <c r="Z585" s="2"/>
     </row>
-    <row r="586">
+    <row r="586" ht="24.75" customHeight="1">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -18313,7 +18339,7 @@
       <c r="Y586" s="2"/>
       <c r="Z586" s="2"/>
     </row>
-    <row r="587">
+    <row r="587" ht="24.75" customHeight="1">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -18341,7 +18367,7 @@
       <c r="Y587" s="2"/>
       <c r="Z587" s="2"/>
     </row>
-    <row r="588">
+    <row r="588" ht="24.75" customHeight="1">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -18369,7 +18395,7 @@
       <c r="Y588" s="2"/>
       <c r="Z588" s="2"/>
     </row>
-    <row r="589">
+    <row r="589" ht="24.75" customHeight="1">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -18397,7 +18423,7 @@
       <c r="Y589" s="2"/>
       <c r="Z589" s="2"/>
     </row>
-    <row r="590">
+    <row r="590" ht="24.75" customHeight="1">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -18425,7 +18451,7 @@
       <c r="Y590" s="2"/>
       <c r="Z590" s="2"/>
     </row>
-    <row r="591">
+    <row r="591" ht="24.75" customHeight="1">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -18453,7 +18479,7 @@
       <c r="Y591" s="2"/>
       <c r="Z591" s="2"/>
     </row>
-    <row r="592">
+    <row r="592" ht="24.75" customHeight="1">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -18481,7 +18507,7 @@
       <c r="Y592" s="2"/>
       <c r="Z592" s="2"/>
     </row>
-    <row r="593">
+    <row r="593" ht="24.75" customHeight="1">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -18509,7 +18535,7 @@
       <c r="Y593" s="2"/>
       <c r="Z593" s="2"/>
     </row>
-    <row r="594">
+    <row r="594" ht="24.75" customHeight="1">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -18537,7 +18563,7 @@
       <c r="Y594" s="2"/>
       <c r="Z594" s="2"/>
     </row>
-    <row r="595">
+    <row r="595" ht="24.75" customHeight="1">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -18565,7 +18591,7 @@
       <c r="Y595" s="2"/>
       <c r="Z595" s="2"/>
     </row>
-    <row r="596">
+    <row r="596" ht="24.75" customHeight="1">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -18593,7 +18619,7 @@
       <c r="Y596" s="2"/>
       <c r="Z596" s="2"/>
     </row>
-    <row r="597">
+    <row r="597" ht="24.75" customHeight="1">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -18621,7 +18647,7 @@
       <c r="Y597" s="2"/>
       <c r="Z597" s="2"/>
     </row>
-    <row r="598">
+    <row r="598" ht="24.75" customHeight="1">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -18649,7 +18675,7 @@
       <c r="Y598" s="2"/>
       <c r="Z598" s="2"/>
     </row>
-    <row r="599">
+    <row r="599" ht="24.75" customHeight="1">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -18677,7 +18703,7 @@
       <c r="Y599" s="2"/>
       <c r="Z599" s="2"/>
     </row>
-    <row r="600">
+    <row r="600" ht="24.75" customHeight="1">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -18705,7 +18731,7 @@
       <c r="Y600" s="2"/>
       <c r="Z600" s="2"/>
     </row>
-    <row r="601">
+    <row r="601" ht="24.75" customHeight="1">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -18733,7 +18759,7 @@
       <c r="Y601" s="2"/>
       <c r="Z601" s="2"/>
     </row>
-    <row r="602">
+    <row r="602" ht="24.75" customHeight="1">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -18761,7 +18787,7 @@
       <c r="Y602" s="2"/>
       <c r="Z602" s="2"/>
     </row>
-    <row r="603">
+    <row r="603" ht="24.75" customHeight="1">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -18789,7 +18815,7 @@
       <c r="Y603" s="2"/>
       <c r="Z603" s="2"/>
     </row>
-    <row r="604">
+    <row r="604" ht="24.75" customHeight="1">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -18817,7 +18843,7 @@
       <c r="Y604" s="2"/>
       <c r="Z604" s="2"/>
     </row>
-    <row r="605">
+    <row r="605" ht="24.75" customHeight="1">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -18845,7 +18871,7 @@
       <c r="Y605" s="2"/>
       <c r="Z605" s="2"/>
     </row>
-    <row r="606">
+    <row r="606" ht="24.75" customHeight="1">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -18873,7 +18899,7 @@
       <c r="Y606" s="2"/>
       <c r="Z606" s="2"/>
     </row>
-    <row r="607">
+    <row r="607" ht="24.75" customHeight="1">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -18901,7 +18927,7 @@
       <c r="Y607" s="2"/>
       <c r="Z607" s="2"/>
     </row>
-    <row r="608">
+    <row r="608" ht="24.75" customHeight="1">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -18929,7 +18955,7 @@
       <c r="Y608" s="2"/>
       <c r="Z608" s="2"/>
     </row>
-    <row r="609">
+    <row r="609" ht="24.75" customHeight="1">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -18957,7 +18983,7 @@
       <c r="Y609" s="2"/>
       <c r="Z609" s="2"/>
     </row>
-    <row r="610">
+    <row r="610" ht="24.75" customHeight="1">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -18985,7 +19011,7 @@
       <c r="Y610" s="2"/>
       <c r="Z610" s="2"/>
     </row>
-    <row r="611">
+    <row r="611" ht="24.75" customHeight="1">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -19013,7 +19039,7 @@
       <c r="Y611" s="2"/>
       <c r="Z611" s="2"/>
     </row>
-    <row r="612">
+    <row r="612" ht="24.75" customHeight="1">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -19041,7 +19067,7 @@
       <c r="Y612" s="2"/>
       <c r="Z612" s="2"/>
     </row>
-    <row r="613">
+    <row r="613" ht="24.75" customHeight="1">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -19069,7 +19095,7 @@
       <c r="Y613" s="2"/>
       <c r="Z613" s="2"/>
     </row>
-    <row r="614">
+    <row r="614" ht="24.75" customHeight="1">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -19097,7 +19123,7 @@
       <c r="Y614" s="2"/>
       <c r="Z614" s="2"/>
     </row>
-    <row r="615">
+    <row r="615" ht="24.75" customHeight="1">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -19125,7 +19151,7 @@
       <c r="Y615" s="2"/>
       <c r="Z615" s="2"/>
     </row>
-    <row r="616">
+    <row r="616" ht="24.75" customHeight="1">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -19153,7 +19179,7 @@
       <c r="Y616" s="2"/>
       <c r="Z616" s="2"/>
     </row>
-    <row r="617">
+    <row r="617" ht="24.75" customHeight="1">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -19181,7 +19207,7 @@
       <c r="Y617" s="2"/>
       <c r="Z617" s="2"/>
     </row>
-    <row r="618">
+    <row r="618" ht="24.75" customHeight="1">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -19209,7 +19235,7 @@
       <c r="Y618" s="2"/>
       <c r="Z618" s="2"/>
     </row>
-    <row r="619">
+    <row r="619" ht="24.75" customHeight="1">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -19237,7 +19263,7 @@
       <c r="Y619" s="2"/>
       <c r="Z619" s="2"/>
     </row>
-    <row r="620">
+    <row r="620" ht="24.75" customHeight="1">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -19265,7 +19291,7 @@
       <c r="Y620" s="2"/>
       <c r="Z620" s="2"/>
     </row>
-    <row r="621">
+    <row r="621" ht="24.75" customHeight="1">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -19293,7 +19319,7 @@
       <c r="Y621" s="2"/>
       <c r="Z621" s="2"/>
     </row>
-    <row r="622">
+    <row r="622" ht="24.75" customHeight="1">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -19321,7 +19347,7 @@
       <c r="Y622" s="2"/>
       <c r="Z622" s="2"/>
     </row>
-    <row r="623">
+    <row r="623" ht="24.75" customHeight="1">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -19349,7 +19375,7 @@
       <c r="Y623" s="2"/>
       <c r="Z623" s="2"/>
     </row>
-    <row r="624">
+    <row r="624" ht="24.75" customHeight="1">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -19377,7 +19403,7 @@
       <c r="Y624" s="2"/>
       <c r="Z624" s="2"/>
     </row>
-    <row r="625">
+    <row r="625" ht="24.75" customHeight="1">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -19405,7 +19431,7 @@
       <c r="Y625" s="2"/>
       <c r="Z625" s="2"/>
     </row>
-    <row r="626">
+    <row r="626" ht="24.75" customHeight="1">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -19433,7 +19459,7 @@
       <c r="Y626" s="2"/>
       <c r="Z626" s="2"/>
     </row>
-    <row r="627">
+    <row r="627" ht="24.75" customHeight="1">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -19461,7 +19487,7 @@
       <c r="Y627" s="2"/>
       <c r="Z627" s="2"/>
     </row>
-    <row r="628">
+    <row r="628" ht="24.75" customHeight="1">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -19489,7 +19515,7 @@
       <c r="Y628" s="2"/>
       <c r="Z628" s="2"/>
     </row>
-    <row r="629">
+    <row r="629" ht="24.75" customHeight="1">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -19517,7 +19543,7 @@
       <c r="Y629" s="2"/>
       <c r="Z629" s="2"/>
     </row>
-    <row r="630">
+    <row r="630" ht="24.75" customHeight="1">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -19545,7 +19571,7 @@
       <c r="Y630" s="2"/>
       <c r="Z630" s="2"/>
     </row>
-    <row r="631">
+    <row r="631" ht="24.75" customHeight="1">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -19573,7 +19599,7 @@
       <c r="Y631" s="2"/>
       <c r="Z631" s="2"/>
     </row>
-    <row r="632">
+    <row r="632" ht="24.75" customHeight="1">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -19601,7 +19627,7 @@
       <c r="Y632" s="2"/>
       <c r="Z632" s="2"/>
     </row>
-    <row r="633">
+    <row r="633" ht="24.75" customHeight="1">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -19629,7 +19655,7 @@
       <c r="Y633" s="2"/>
       <c r="Z633" s="2"/>
     </row>
-    <row r="634">
+    <row r="634" ht="24.75" customHeight="1">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -19657,7 +19683,7 @@
       <c r="Y634" s="2"/>
       <c r="Z634" s="2"/>
     </row>
-    <row r="635">
+    <row r="635" ht="24.75" customHeight="1">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -19685,7 +19711,7 @@
       <c r="Y635" s="2"/>
       <c r="Z635" s="2"/>
     </row>
-    <row r="636">
+    <row r="636" ht="24.75" customHeight="1">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -19713,7 +19739,7 @@
       <c r="Y636" s="2"/>
       <c r="Z636" s="2"/>
     </row>
-    <row r="637">
+    <row r="637" ht="24.75" customHeight="1">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -19741,7 +19767,7 @@
       <c r="Y637" s="2"/>
       <c r="Z637" s="2"/>
     </row>
-    <row r="638">
+    <row r="638" ht="24.75" customHeight="1">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -19769,7 +19795,7 @@
       <c r="Y638" s="2"/>
       <c r="Z638" s="2"/>
     </row>
-    <row r="639">
+    <row r="639" ht="24.75" customHeight="1">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -19797,7 +19823,7 @@
       <c r="Y639" s="2"/>
       <c r="Z639" s="2"/>
     </row>
-    <row r="640">
+    <row r="640" ht="24.75" customHeight="1">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -19825,7 +19851,7 @@
       <c r="Y640" s="2"/>
       <c r="Z640" s="2"/>
     </row>
-    <row r="641">
+    <row r="641" ht="24.75" customHeight="1">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -19853,7 +19879,7 @@
       <c r="Y641" s="2"/>
       <c r="Z641" s="2"/>
     </row>
-    <row r="642">
+    <row r="642" ht="24.75" customHeight="1">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -19881,7 +19907,7 @@
       <c r="Y642" s="2"/>
       <c r="Z642" s="2"/>
     </row>
-    <row r="643">
+    <row r="643" ht="24.75" customHeight="1">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -19909,7 +19935,7 @@
       <c r="Y643" s="2"/>
       <c r="Z643" s="2"/>
     </row>
-    <row r="644">
+    <row r="644" ht="24.75" customHeight="1">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -19937,7 +19963,7 @@
       <c r="Y644" s="2"/>
       <c r="Z644" s="2"/>
     </row>
-    <row r="645">
+    <row r="645" ht="24.75" customHeight="1">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -19965,7 +19991,7 @@
       <c r="Y645" s="2"/>
       <c r="Z645" s="2"/>
     </row>
-    <row r="646">
+    <row r="646" ht="24.75" customHeight="1">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -19993,7 +20019,7 @@
       <c r="Y646" s="2"/>
       <c r="Z646" s="2"/>
     </row>
-    <row r="647">
+    <row r="647" ht="24.75" customHeight="1">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -20021,7 +20047,7 @@
       <c r="Y647" s="2"/>
       <c r="Z647" s="2"/>
     </row>
-    <row r="648">
+    <row r="648" ht="24.75" customHeight="1">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -20049,7 +20075,7 @@
       <c r="Y648" s="2"/>
       <c r="Z648" s="2"/>
     </row>
-    <row r="649">
+    <row r="649" ht="24.75" customHeight="1">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -20077,7 +20103,7 @@
       <c r="Y649" s="2"/>
       <c r="Z649" s="2"/>
     </row>
-    <row r="650">
+    <row r="650" ht="24.75" customHeight="1">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -20105,7 +20131,7 @@
       <c r="Y650" s="2"/>
       <c r="Z650" s="2"/>
     </row>
-    <row r="651">
+    <row r="651" ht="24.75" customHeight="1">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -20133,7 +20159,7 @@
       <c r="Y651" s="2"/>
       <c r="Z651" s="2"/>
     </row>
-    <row r="652">
+    <row r="652" ht="24.75" customHeight="1">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -20161,7 +20187,7 @@
       <c r="Y652" s="2"/>
       <c r="Z652" s="2"/>
     </row>
-    <row r="653">
+    <row r="653" ht="24.75" customHeight="1">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -20189,7 +20215,7 @@
       <c r="Y653" s="2"/>
       <c r="Z653" s="2"/>
     </row>
-    <row r="654">
+    <row r="654" ht="24.75" customHeight="1">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -20217,7 +20243,7 @@
       <c r="Y654" s="2"/>
       <c r="Z654" s="2"/>
     </row>
-    <row r="655">
+    <row r="655" ht="24.75" customHeight="1">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -20245,7 +20271,7 @@
       <c r="Y655" s="2"/>
       <c r="Z655" s="2"/>
     </row>
-    <row r="656">
+    <row r="656" ht="24.75" customHeight="1">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -20273,7 +20299,7 @@
       <c r="Y656" s="2"/>
       <c r="Z656" s="2"/>
     </row>
-    <row r="657">
+    <row r="657" ht="24.75" customHeight="1">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -20301,7 +20327,7 @@
       <c r="Y657" s="2"/>
       <c r="Z657" s="2"/>
     </row>
-    <row r="658">
+    <row r="658" ht="24.75" customHeight="1">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -20329,7 +20355,7 @@
       <c r="Y658" s="2"/>
       <c r="Z658" s="2"/>
     </row>
-    <row r="659">
+    <row r="659" ht="24.75" customHeight="1">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -20357,7 +20383,7 @@
       <c r="Y659" s="2"/>
       <c r="Z659" s="2"/>
     </row>
-    <row r="660">
+    <row r="660" ht="24.75" customHeight="1">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -20385,7 +20411,7 @@
       <c r="Y660" s="2"/>
       <c r="Z660" s="2"/>
     </row>
-    <row r="661">
+    <row r="661" ht="24.75" customHeight="1">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -20413,7 +20439,7 @@
       <c r="Y661" s="2"/>
       <c r="Z661" s="2"/>
     </row>
-    <row r="662">
+    <row r="662" ht="24.75" customHeight="1">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -20441,7 +20467,7 @@
       <c r="Y662" s="2"/>
       <c r="Z662" s="2"/>
     </row>
-    <row r="663">
+    <row r="663" ht="24.75" customHeight="1">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -20469,7 +20495,7 @@
       <c r="Y663" s="2"/>
       <c r="Z663" s="2"/>
     </row>
-    <row r="664">
+    <row r="664" ht="24.75" customHeight="1">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -20497,7 +20523,7 @@
       <c r="Y664" s="2"/>
       <c r="Z664" s="2"/>
     </row>
-    <row r="665">
+    <row r="665" ht="24.75" customHeight="1">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -20525,7 +20551,7 @@
       <c r="Y665" s="2"/>
       <c r="Z665" s="2"/>
     </row>
-    <row r="666">
+    <row r="666" ht="24.75" customHeight="1">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -20553,7 +20579,7 @@
       <c r="Y666" s="2"/>
       <c r="Z666" s="2"/>
     </row>
-    <row r="667">
+    <row r="667" ht="24.75" customHeight="1">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -20581,7 +20607,7 @@
       <c r="Y667" s="2"/>
       <c r="Z667" s="2"/>
     </row>
-    <row r="668">
+    <row r="668" ht="24.75" customHeight="1">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -20609,7 +20635,7 @@
       <c r="Y668" s="2"/>
       <c r="Z668" s="2"/>
     </row>
-    <row r="669">
+    <row r="669" ht="24.75" customHeight="1">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -20637,7 +20663,7 @@
       <c r="Y669" s="2"/>
       <c r="Z669" s="2"/>
     </row>
-    <row r="670">
+    <row r="670" ht="24.75" customHeight="1">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -20665,7 +20691,7 @@
       <c r="Y670" s="2"/>
       <c r="Z670" s="2"/>
     </row>
-    <row r="671">
+    <row r="671" ht="24.75" customHeight="1">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -20693,7 +20719,7 @@
       <c r="Y671" s="2"/>
       <c r="Z671" s="2"/>
     </row>
-    <row r="672">
+    <row r="672" ht="24.75" customHeight="1">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -20721,7 +20747,7 @@
       <c r="Y672" s="2"/>
       <c r="Z672" s="2"/>
     </row>
-    <row r="673">
+    <row r="673" ht="24.75" customHeight="1">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -20749,7 +20775,7 @@
       <c r="Y673" s="2"/>
       <c r="Z673" s="2"/>
     </row>
-    <row r="674">
+    <row r="674" ht="24.75" customHeight="1">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -20777,7 +20803,7 @@
       <c r="Y674" s="2"/>
       <c r="Z674" s="2"/>
     </row>
-    <row r="675">
+    <row r="675" ht="24.75" customHeight="1">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -20805,7 +20831,7 @@
       <c r="Y675" s="2"/>
       <c r="Z675" s="2"/>
     </row>
-    <row r="676">
+    <row r="676" ht="24.75" customHeight="1">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -20833,7 +20859,7 @@
       <c r="Y676" s="2"/>
       <c r="Z676" s="2"/>
     </row>
-    <row r="677">
+    <row r="677" ht="24.75" customHeight="1">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -20861,7 +20887,7 @@
       <c r="Y677" s="2"/>
       <c r="Z677" s="2"/>
     </row>
-    <row r="678">
+    <row r="678" ht="24.75" customHeight="1">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -20889,7 +20915,7 @@
       <c r="Y678" s="2"/>
       <c r="Z678" s="2"/>
     </row>
-    <row r="679">
+    <row r="679" ht="24.75" customHeight="1">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -20917,7 +20943,7 @@
       <c r="Y679" s="2"/>
       <c r="Z679" s="2"/>
     </row>
-    <row r="680">
+    <row r="680" ht="24.75" customHeight="1">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -20945,7 +20971,7 @@
       <c r="Y680" s="2"/>
       <c r="Z680" s="2"/>
     </row>
-    <row r="681">
+    <row r="681" ht="24.75" customHeight="1">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -20973,7 +20999,7 @@
       <c r="Y681" s="2"/>
       <c r="Z681" s="2"/>
     </row>
-    <row r="682">
+    <row r="682" ht="24.75" customHeight="1">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -21001,7 +21027,7 @@
       <c r="Y682" s="2"/>
       <c r="Z682" s="2"/>
     </row>
-    <row r="683">
+    <row r="683" ht="24.75" customHeight="1">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -21029,7 +21055,7 @@
       <c r="Y683" s="2"/>
       <c r="Z683" s="2"/>
     </row>
-    <row r="684">
+    <row r="684" ht="24.75" customHeight="1">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -21057,7 +21083,7 @@
       <c r="Y684" s="2"/>
       <c r="Z684" s="2"/>
     </row>
-    <row r="685">
+    <row r="685" ht="24.75" customHeight="1">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -21085,7 +21111,7 @@
       <c r="Y685" s="2"/>
       <c r="Z685" s="2"/>
     </row>
-    <row r="686">
+    <row r="686" ht="24.75" customHeight="1">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -21113,7 +21139,7 @@
       <c r="Y686" s="2"/>
       <c r="Z686" s="2"/>
     </row>
-    <row r="687">
+    <row r="687" ht="24.75" customHeight="1">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -21141,7 +21167,7 @@
       <c r="Y687" s="2"/>
       <c r="Z687" s="2"/>
     </row>
-    <row r="688">
+    <row r="688" ht="24.75" customHeight="1">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -21169,7 +21195,7 @@
       <c r="Y688" s="2"/>
       <c r="Z688" s="2"/>
     </row>
-    <row r="689">
+    <row r="689" ht="24.75" customHeight="1">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -21197,7 +21223,7 @@
       <c r="Y689" s="2"/>
       <c r="Z689" s="2"/>
     </row>
-    <row r="690">
+    <row r="690" ht="24.75" customHeight="1">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -21225,7 +21251,7 @@
       <c r="Y690" s="2"/>
       <c r="Z690" s="2"/>
     </row>
-    <row r="691">
+    <row r="691" ht="24.75" customHeight="1">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -21253,7 +21279,7 @@
       <c r="Y691" s="2"/>
       <c r="Z691" s="2"/>
     </row>
-    <row r="692">
+    <row r="692" ht="24.75" customHeight="1">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -21281,7 +21307,7 @@
       <c r="Y692" s="2"/>
       <c r="Z692" s="2"/>
     </row>
-    <row r="693">
+    <row r="693" ht="24.75" customHeight="1">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -21309,7 +21335,7 @@
       <c r="Y693" s="2"/>
       <c r="Z693" s="2"/>
     </row>
-    <row r="694">
+    <row r="694" ht="24.75" customHeight="1">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -21337,7 +21363,7 @@
       <c r="Y694" s="2"/>
       <c r="Z694" s="2"/>
     </row>
-    <row r="695">
+    <row r="695" ht="24.75" customHeight="1">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -21365,7 +21391,7 @@
       <c r="Y695" s="2"/>
       <c r="Z695" s="2"/>
     </row>
-    <row r="696">
+    <row r="696" ht="24.75" customHeight="1">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -21393,7 +21419,7 @@
       <c r="Y696" s="2"/>
       <c r="Z696" s="2"/>
     </row>
-    <row r="697">
+    <row r="697" ht="24.75" customHeight="1">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -21421,7 +21447,7 @@
       <c r="Y697" s="2"/>
       <c r="Z697" s="2"/>
     </row>
-    <row r="698">
+    <row r="698" ht="24.75" customHeight="1">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -21449,7 +21475,7 @@
       <c r="Y698" s="2"/>
       <c r="Z698" s="2"/>
     </row>
-    <row r="699">
+    <row r="699" ht="24.75" customHeight="1">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -21477,7 +21503,7 @@
       <c r="Y699" s="2"/>
       <c r="Z699" s="2"/>
     </row>
-    <row r="700">
+    <row r="700" ht="24.75" customHeight="1">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -21505,7 +21531,7 @@
       <c r="Y700" s="2"/>
       <c r="Z700" s="2"/>
     </row>
-    <row r="701">
+    <row r="701" ht="24.75" customHeight="1">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -21533,7 +21559,7 @@
       <c r="Y701" s="2"/>
       <c r="Z701" s="2"/>
     </row>
-    <row r="702">
+    <row r="702" ht="24.75" customHeight="1">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -21561,7 +21587,7 @@
       <c r="Y702" s="2"/>
       <c r="Z702" s="2"/>
     </row>
-    <row r="703">
+    <row r="703" ht="24.75" customHeight="1">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -21589,7 +21615,7 @@
       <c r="Y703" s="2"/>
       <c r="Z703" s="2"/>
     </row>
-    <row r="704">
+    <row r="704" ht="24.75" customHeight="1">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -21617,7 +21643,7 @@
       <c r="Y704" s="2"/>
       <c r="Z704" s="2"/>
     </row>
-    <row r="705">
+    <row r="705" ht="24.75" customHeight="1">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -21645,7 +21671,7 @@
       <c r="Y705" s="2"/>
       <c r="Z705" s="2"/>
     </row>
-    <row r="706">
+    <row r="706" ht="24.75" customHeight="1">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -21673,7 +21699,7 @@
       <c r="Y706" s="2"/>
       <c r="Z706" s="2"/>
     </row>
-    <row r="707">
+    <row r="707" ht="24.75" customHeight="1">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -21701,7 +21727,7 @@
       <c r="Y707" s="2"/>
       <c r="Z707" s="2"/>
     </row>
-    <row r="708">
+    <row r="708" ht="24.75" customHeight="1">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -21729,7 +21755,7 @@
       <c r="Y708" s="2"/>
       <c r="Z708" s="2"/>
     </row>
-    <row r="709">
+    <row r="709" ht="24.75" customHeight="1">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -21757,7 +21783,7 @@
       <c r="Y709" s="2"/>
       <c r="Z709" s="2"/>
     </row>
-    <row r="710">
+    <row r="710" ht="24.75" customHeight="1">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -21785,7 +21811,7 @@
       <c r="Y710" s="2"/>
       <c r="Z710" s="2"/>
     </row>
-    <row r="711">
+    <row r="711" ht="24.75" customHeight="1">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -21813,7 +21839,7 @@
       <c r="Y711" s="2"/>
       <c r="Z711" s="2"/>
     </row>
-    <row r="712">
+    <row r="712" ht="24.75" customHeight="1">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -21841,7 +21867,7 @@
       <c r="Y712" s="2"/>
       <c r="Z712" s="2"/>
     </row>
-    <row r="713">
+    <row r="713" ht="24.75" customHeight="1">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -21869,7 +21895,7 @@
       <c r="Y713" s="2"/>
       <c r="Z713" s="2"/>
     </row>
-    <row r="714">
+    <row r="714" ht="24.75" customHeight="1">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -21897,7 +21923,7 @@
       <c r="Y714" s="2"/>
       <c r="Z714" s="2"/>
     </row>
-    <row r="715">
+    <row r="715" ht="24.75" customHeight="1">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -21925,7 +21951,7 @@
       <c r="Y715" s="2"/>
       <c r="Z715" s="2"/>
     </row>
-    <row r="716">
+    <row r="716" ht="24.75" customHeight="1">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -21953,7 +21979,7 @@
       <c r="Y716" s="2"/>
       <c r="Z716" s="2"/>
     </row>
-    <row r="717">
+    <row r="717" ht="24.75" customHeight="1">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -21981,7 +22007,7 @@
       <c r="Y717" s="2"/>
       <c r="Z717" s="2"/>
     </row>
-    <row r="718">
+    <row r="718" ht="24.75" customHeight="1">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -22009,7 +22035,7 @@
       <c r="Y718" s="2"/>
       <c r="Z718" s="2"/>
     </row>
-    <row r="719">
+    <row r="719" ht="24.75" customHeight="1">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -22037,7 +22063,7 @@
       <c r="Y719" s="2"/>
       <c r="Z719" s="2"/>
     </row>
-    <row r="720">
+    <row r="720" ht="24.75" customHeight="1">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -22065,7 +22091,7 @@
       <c r="Y720" s="2"/>
       <c r="Z720" s="2"/>
     </row>
-    <row r="721">
+    <row r="721" ht="24.75" customHeight="1">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -22093,7 +22119,7 @@
       <c r="Y721" s="2"/>
       <c r="Z721" s="2"/>
     </row>
-    <row r="722">
+    <row r="722" ht="24.75" customHeight="1">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -22121,7 +22147,7 @@
       <c r="Y722" s="2"/>
       <c r="Z722" s="2"/>
     </row>
-    <row r="723">
+    <row r="723" ht="24.75" customHeight="1">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -22149,7 +22175,7 @@
       <c r="Y723" s="2"/>
       <c r="Z723" s="2"/>
     </row>
-    <row r="724">
+    <row r="724" ht="24.75" customHeight="1">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -22177,7 +22203,7 @@
       <c r="Y724" s="2"/>
       <c r="Z724" s="2"/>
     </row>
-    <row r="725">
+    <row r="725" ht="24.75" customHeight="1">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -22205,7 +22231,7 @@
       <c r="Y725" s="2"/>
       <c r="Z725" s="2"/>
     </row>
-    <row r="726">
+    <row r="726" ht="24.75" customHeight="1">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -22233,7 +22259,7 @@
       <c r="Y726" s="2"/>
       <c r="Z726" s="2"/>
     </row>
-    <row r="727">
+    <row r="727" ht="24.75" customHeight="1">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -22261,7 +22287,7 @@
       <c r="Y727" s="2"/>
       <c r="Z727" s="2"/>
     </row>
-    <row r="728">
+    <row r="728" ht="24.75" customHeight="1">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -22289,7 +22315,7 @@
       <c r="Y728" s="2"/>
       <c r="Z728" s="2"/>
     </row>
-    <row r="729">
+    <row r="729" ht="24.75" customHeight="1">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -22317,7 +22343,7 @@
       <c r="Y729" s="2"/>
       <c r="Z729" s="2"/>
     </row>
-    <row r="730">
+    <row r="730" ht="24.75" customHeight="1">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -22345,7 +22371,7 @@
       <c r="Y730" s="2"/>
       <c r="Z730" s="2"/>
     </row>
-    <row r="731">
+    <row r="731" ht="24.75" customHeight="1">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -22373,7 +22399,7 @@
       <c r="Y731" s="2"/>
       <c r="Z731" s="2"/>
     </row>
-    <row r="732">
+    <row r="732" ht="24.75" customHeight="1">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -22401,7 +22427,7 @@
       <c r="Y732" s="2"/>
       <c r="Z732" s="2"/>
     </row>
-    <row r="733">
+    <row r="733" ht="24.75" customHeight="1">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -22429,7 +22455,7 @@
       <c r="Y733" s="2"/>
       <c r="Z733" s="2"/>
     </row>
-    <row r="734">
+    <row r="734" ht="24.75" customHeight="1">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -22457,7 +22483,7 @@
       <c r="Y734" s="2"/>
       <c r="Z734" s="2"/>
     </row>
-    <row r="735">
+    <row r="735" ht="24.75" customHeight="1">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -22485,7 +22511,7 @@
       <c r="Y735" s="2"/>
       <c r="Z735" s="2"/>
     </row>
-    <row r="736">
+    <row r="736" ht="24.75" customHeight="1">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -22513,7 +22539,7 @@
       <c r="Y736" s="2"/>
       <c r="Z736" s="2"/>
     </row>
-    <row r="737">
+    <row r="737" ht="24.75" customHeight="1">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -22541,7 +22567,7 @@
       <c r="Y737" s="2"/>
       <c r="Z737" s="2"/>
     </row>
-    <row r="738">
+    <row r="738" ht="24.75" customHeight="1">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -22569,7 +22595,7 @@
       <c r="Y738" s="2"/>
       <c r="Z738" s="2"/>
     </row>
-    <row r="739">
+    <row r="739" ht="24.75" customHeight="1">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -22597,7 +22623,7 @@
       <c r="Y739" s="2"/>
       <c r="Z739" s="2"/>
     </row>
-    <row r="740">
+    <row r="740" ht="24.75" customHeight="1">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -22625,7 +22651,7 @@
       <c r="Y740" s="2"/>
       <c r="Z740" s="2"/>
     </row>
-    <row r="741">
+    <row r="741" ht="24.75" customHeight="1">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -22653,7 +22679,7 @@
       <c r="Y741" s="2"/>
       <c r="Z741" s="2"/>
     </row>
-    <row r="742">
+    <row r="742" ht="24.75" customHeight="1">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -22681,7 +22707,7 @@
       <c r="Y742" s="2"/>
       <c r="Z742" s="2"/>
     </row>
-    <row r="743">
+    <row r="743" ht="24.75" customHeight="1">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -22709,7 +22735,7 @@
       <c r="Y743" s="2"/>
       <c r="Z743" s="2"/>
     </row>
-    <row r="744">
+    <row r="744" ht="24.75" customHeight="1">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -22737,7 +22763,7 @@
       <c r="Y744" s="2"/>
       <c r="Z744" s="2"/>
     </row>
-    <row r="745">
+    <row r="745" ht="24.75" customHeight="1">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -22765,7 +22791,7 @@
       <c r="Y745" s="2"/>
       <c r="Z745" s="2"/>
     </row>
-    <row r="746">
+    <row r="746" ht="24.75" customHeight="1">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -22793,7 +22819,7 @@
       <c r="Y746" s="2"/>
       <c r="Z746" s="2"/>
     </row>
-    <row r="747">
+    <row r="747" ht="24.75" customHeight="1">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -22821,7 +22847,7 @@
       <c r="Y747" s="2"/>
       <c r="Z747" s="2"/>
     </row>
-    <row r="748">
+    <row r="748" ht="24.75" customHeight="1">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -22849,7 +22875,7 @@
       <c r="Y748" s="2"/>
       <c r="Z748" s="2"/>
     </row>
-    <row r="749">
+    <row r="749" ht="24.75" customHeight="1">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -22877,7 +22903,7 @@
       <c r="Y749" s="2"/>
       <c r="Z749" s="2"/>
     </row>
-    <row r="750">
+    <row r="750" ht="24.75" customHeight="1">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -22905,7 +22931,7 @@
       <c r="Y750" s="2"/>
       <c r="Z750" s="2"/>
     </row>
-    <row r="751">
+    <row r="751" ht="24.75" customHeight="1">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -22933,7 +22959,7 @@
       <c r="Y751" s="2"/>
       <c r="Z751" s="2"/>
     </row>
-    <row r="752">
+    <row r="752" ht="24.75" customHeight="1">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -22961,7 +22987,7 @@
       <c r="Y752" s="2"/>
       <c r="Z752" s="2"/>
     </row>
-    <row r="753">
+    <row r="753" ht="24.75" customHeight="1">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -22989,7 +23015,7 @@
       <c r="Y753" s="2"/>
       <c r="Z753" s="2"/>
     </row>
-    <row r="754">
+    <row r="754" ht="24.75" customHeight="1">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -23017,7 +23043,7 @@
       <c r="Y754" s="2"/>
       <c r="Z754" s="2"/>
     </row>
-    <row r="755">
+    <row r="755" ht="24.75" customHeight="1">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -23045,7 +23071,7 @@
       <c r="Y755" s="2"/>
       <c r="Z755" s="2"/>
     </row>
-    <row r="756">
+    <row r="756" ht="24.75" customHeight="1">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -23073,7 +23099,7 @@
       <c r="Y756" s="2"/>
       <c r="Z756" s="2"/>
     </row>
-    <row r="757">
+    <row r="757" ht="24.75" customHeight="1">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -23101,7 +23127,7 @@
       <c r="Y757" s="2"/>
       <c r="Z757" s="2"/>
     </row>
-    <row r="758">
+    <row r="758" ht="24.75" customHeight="1">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -23129,7 +23155,7 @@
       <c r="Y758" s="2"/>
       <c r="Z758" s="2"/>
     </row>
-    <row r="759">
+    <row r="759" ht="24.75" customHeight="1">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -23157,7 +23183,7 @@
       <c r="Y759" s="2"/>
       <c r="Z759" s="2"/>
     </row>
-    <row r="760">
+    <row r="760" ht="24.75" customHeight="1">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -23185,7 +23211,7 @@
       <c r="Y760" s="2"/>
       <c r="Z760" s="2"/>
     </row>
-    <row r="761">
+    <row r="761" ht="24.75" customHeight="1">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -23213,7 +23239,7 @@
       <c r="Y761" s="2"/>
       <c r="Z761" s="2"/>
     </row>
-    <row r="762">
+    <row r="762" ht="24.75" customHeight="1">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -23241,7 +23267,7 @@
       <c r="Y762" s="2"/>
       <c r="Z762" s="2"/>
     </row>
-    <row r="763">
+    <row r="763" ht="24.75" customHeight="1">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -23269,7 +23295,7 @@
       <c r="Y763" s="2"/>
       <c r="Z763" s="2"/>
     </row>
-    <row r="764">
+    <row r="764" ht="24.75" customHeight="1">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -23297,7 +23323,7 @@
       <c r="Y764" s="2"/>
       <c r="Z764" s="2"/>
     </row>
-    <row r="765">
+    <row r="765" ht="24.75" customHeight="1">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -23325,7 +23351,7 @@
       <c r="Y765" s="2"/>
       <c r="Z765" s="2"/>
     </row>
-    <row r="766">
+    <row r="766" ht="24.75" customHeight="1">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -23353,7 +23379,7 @@
       <c r="Y766" s="2"/>
       <c r="Z766" s="2"/>
     </row>
-    <row r="767">
+    <row r="767" ht="24.75" customHeight="1">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -23381,7 +23407,7 @@
       <c r="Y767" s="2"/>
       <c r="Z767" s="2"/>
     </row>
-    <row r="768">
+    <row r="768" ht="24.75" customHeight="1">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -23409,7 +23435,7 @@
       <c r="Y768" s="2"/>
       <c r="Z768" s="2"/>
     </row>
-    <row r="769">
+    <row r="769" ht="24.75" customHeight="1">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -23437,7 +23463,7 @@
       <c r="Y769" s="2"/>
       <c r="Z769" s="2"/>
     </row>
-    <row r="770">
+    <row r="770" ht="24.75" customHeight="1">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -23465,7 +23491,7 @@
       <c r="Y770" s="2"/>
       <c r="Z770" s="2"/>
     </row>
-    <row r="771">
+    <row r="771" ht="24.75" customHeight="1">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -23493,7 +23519,7 @@
       <c r="Y771" s="2"/>
       <c r="Z771" s="2"/>
     </row>
-    <row r="772">
+    <row r="772" ht="24.75" customHeight="1">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -23521,7 +23547,7 @@
       <c r="Y772" s="2"/>
       <c r="Z772" s="2"/>
     </row>
-    <row r="773">
+    <row r="773" ht="24.75" customHeight="1">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -23549,7 +23575,7 @@
       <c r="Y773" s="2"/>
       <c r="Z773" s="2"/>
     </row>
-    <row r="774">
+    <row r="774" ht="24.75" customHeight="1">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -23577,7 +23603,7 @@
       <c r="Y774" s="2"/>
       <c r="Z774" s="2"/>
     </row>
-    <row r="775">
+    <row r="775" ht="24.75" customHeight="1">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -23605,7 +23631,7 @@
       <c r="Y775" s="2"/>
       <c r="Z775" s="2"/>
     </row>
-    <row r="776">
+    <row r="776" ht="24.75" customHeight="1">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -23633,7 +23659,7 @@
       <c r="Y776" s="2"/>
       <c r="Z776" s="2"/>
     </row>
-    <row r="777">
+    <row r="777" ht="24.75" customHeight="1">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -23661,7 +23687,7 @@
       <c r="Y777" s="2"/>
       <c r="Z777" s="2"/>
     </row>
-    <row r="778">
+    <row r="778" ht="24.75" customHeight="1">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -23689,7 +23715,7 @@
       <c r="Y778" s="2"/>
       <c r="Z778" s="2"/>
     </row>
-    <row r="779">
+    <row r="779" ht="24.75" customHeight="1">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -23717,7 +23743,7 @@
       <c r="Y779" s="2"/>
       <c r="Z779" s="2"/>
     </row>
-    <row r="780">
+    <row r="780" ht="24.75" customHeight="1">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -23745,7 +23771,7 @@
       <c r="Y780" s="2"/>
       <c r="Z780" s="2"/>
     </row>
-    <row r="781">
+    <row r="781" ht="24.75" customHeight="1">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -23773,7 +23799,7 @@
       <c r="Y781" s="2"/>
       <c r="Z781" s="2"/>
     </row>
-    <row r="782">
+    <row r="782" ht="24.75" customHeight="1">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -23801,7 +23827,7 @@
       <c r="Y782" s="2"/>
       <c r="Z782" s="2"/>
     </row>
-    <row r="783">
+    <row r="783" ht="24.75" customHeight="1">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -23829,7 +23855,7 @@
       <c r="Y783" s="2"/>
       <c r="Z783" s="2"/>
     </row>
-    <row r="784">
+    <row r="784" ht="24.75" customHeight="1">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -23857,7 +23883,7 @@
       <c r="Y784" s="2"/>
       <c r="Z784" s="2"/>
     </row>
-    <row r="785">
+    <row r="785" ht="24.75" customHeight="1">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -23885,7 +23911,7 @@
       <c r="Y785" s="2"/>
       <c r="Z785" s="2"/>
     </row>
-    <row r="786">
+    <row r="786" ht="24.75" customHeight="1">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -23913,7 +23939,7 @@
       <c r="Y786" s="2"/>
       <c r="Z786" s="2"/>
     </row>
-    <row r="787">
+    <row r="787" ht="24.75" customHeight="1">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -23941,7 +23967,7 @@
       <c r="Y787" s="2"/>
       <c r="Z787" s="2"/>
     </row>
-    <row r="788">
+    <row r="788" ht="24.75" customHeight="1">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -23969,7 +23995,7 @@
       <c r="Y788" s="2"/>
       <c r="Z788" s="2"/>
     </row>
-    <row r="789">
+    <row r="789" ht="24.75" customHeight="1">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -23997,7 +24023,7 @@
       <c r="Y789" s="2"/>
       <c r="Z789" s="2"/>
     </row>
-    <row r="790">
+    <row r="790" ht="24.75" customHeight="1">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -24025,7 +24051,7 @@
       <c r="Y790" s="2"/>
       <c r="Z790" s="2"/>
     </row>
-    <row r="791">
+    <row r="791" ht="24.75" customHeight="1">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -24053,7 +24079,7 @@
       <c r="Y791" s="2"/>
       <c r="Z791" s="2"/>
     </row>
-    <row r="792">
+    <row r="792" ht="24.75" customHeight="1">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -24081,7 +24107,7 @@
       <c r="Y792" s="2"/>
       <c r="Z792" s="2"/>
     </row>
-    <row r="793">
+    <row r="793" ht="24.75" customHeight="1">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -24109,7 +24135,7 @@
       <c r="Y793" s="2"/>
       <c r="Z793" s="2"/>
     </row>
-    <row r="794">
+    <row r="794" ht="24.75" customHeight="1">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -24137,7 +24163,7 @@
       <c r="Y794" s="2"/>
       <c r="Z794" s="2"/>
     </row>
-    <row r="795">
+    <row r="795" ht="24.75" customHeight="1">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -24165,7 +24191,7 @@
       <c r="Y795" s="2"/>
       <c r="Z795" s="2"/>
     </row>
-    <row r="796">
+    <row r="796" ht="24.75" customHeight="1">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -24193,7 +24219,7 @@
       <c r="Y796" s="2"/>
       <c r="Z796" s="2"/>
     </row>
-    <row r="797">
+    <row r="797" ht="24.75" customHeight="1">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -24221,7 +24247,7 @@
       <c r="Y797" s="2"/>
       <c r="Z797" s="2"/>
     </row>
-    <row r="798">
+    <row r="798" ht="24.75" customHeight="1">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -24249,7 +24275,7 @@
       <c r="Y798" s="2"/>
       <c r="Z798" s="2"/>
     </row>
-    <row r="799">
+    <row r="799" ht="24.75" customHeight="1">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -24277,7 +24303,7 @@
       <c r="Y799" s="2"/>
       <c r="Z799" s="2"/>
     </row>
-    <row r="800">
+    <row r="800" ht="24.75" customHeight="1">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -24305,7 +24331,7 @@
       <c r="Y800" s="2"/>
       <c r="Z800" s="2"/>
     </row>
-    <row r="801">
+    <row r="801" ht="24.75" customHeight="1">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -24333,7 +24359,7 @@
       <c r="Y801" s="2"/>
       <c r="Z801" s="2"/>
     </row>
-    <row r="802">
+    <row r="802" ht="24.75" customHeight="1">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -24361,7 +24387,7 @@
       <c r="Y802" s="2"/>
       <c r="Z802" s="2"/>
     </row>
-    <row r="803">
+    <row r="803" ht="24.75" customHeight="1">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -24389,7 +24415,7 @@
       <c r="Y803" s="2"/>
       <c r="Z803" s="2"/>
     </row>
-    <row r="804">
+    <row r="804" ht="24.75" customHeight="1">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -24417,7 +24443,7 @@
       <c r="Y804" s="2"/>
       <c r="Z804" s="2"/>
     </row>
-    <row r="805">
+    <row r="805" ht="24.75" customHeight="1">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -24445,7 +24471,7 @@
       <c r="Y805" s="2"/>
       <c r="Z805" s="2"/>
     </row>
-    <row r="806">
+    <row r="806" ht="24.75" customHeight="1">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -24473,7 +24499,7 @@
       <c r="Y806" s="2"/>
       <c r="Z806" s="2"/>
     </row>
-    <row r="807">
+    <row r="807" ht="24.75" customHeight="1">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -24501,7 +24527,7 @@
       <c r="Y807" s="2"/>
       <c r="Z807" s="2"/>
     </row>
-    <row r="808">
+    <row r="808" ht="24.75" customHeight="1">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -24529,7 +24555,7 @@
       <c r="Y808" s="2"/>
       <c r="Z808" s="2"/>
     </row>
-    <row r="809">
+    <row r="809" ht="24.75" customHeight="1">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -24557,7 +24583,7 @@
       <c r="Y809" s="2"/>
       <c r="Z809" s="2"/>
     </row>
-    <row r="810">
+    <row r="810" ht="24.75" customHeight="1">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -24585,7 +24611,7 @@
       <c r="Y810" s="2"/>
       <c r="Z810" s="2"/>
     </row>
-    <row r="811">
+    <row r="811" ht="24.75" customHeight="1">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -24613,7 +24639,7 @@
       <c r="Y811" s="2"/>
       <c r="Z811" s="2"/>
     </row>
-    <row r="812">
+    <row r="812" ht="24.75" customHeight="1">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -24641,7 +24667,7 @@
       <c r="Y812" s="2"/>
       <c r="Z812" s="2"/>
     </row>
-    <row r="813">
+    <row r="813" ht="24.75" customHeight="1">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -24669,7 +24695,7 @@
       <c r="Y813" s="2"/>
       <c r="Z813" s="2"/>
     </row>
-    <row r="814">
+    <row r="814" ht="24.75" customHeight="1">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -24697,7 +24723,7 @@
       <c r="Y814" s="2"/>
       <c r="Z814" s="2"/>
     </row>
-    <row r="815">
+    <row r="815" ht="24.75" customHeight="1">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -24725,7 +24751,7 @@
       <c r="Y815" s="2"/>
       <c r="Z815" s="2"/>
     </row>
-    <row r="816">
+    <row r="816" ht="24.75" customHeight="1">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -24753,7 +24779,7 @@
       <c r="Y816" s="2"/>
       <c r="Z816" s="2"/>
     </row>
-    <row r="817">
+    <row r="817" ht="24.75" customHeight="1">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -24781,7 +24807,7 @@
       <c r="Y817" s="2"/>
       <c r="Z817" s="2"/>
     </row>
-    <row r="818">
+    <row r="818" ht="24.75" customHeight="1">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -24809,7 +24835,7 @@
       <c r="Y818" s="2"/>
       <c r="Z818" s="2"/>
     </row>
-    <row r="819">
+    <row r="819" ht="24.75" customHeight="1">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -24837,7 +24863,7 @@
       <c r="Y819" s="2"/>
       <c r="Z819" s="2"/>
     </row>
-    <row r="820">
+    <row r="820" ht="24.75" customHeight="1">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -24865,7 +24891,7 @@
       <c r="Y820" s="2"/>
       <c r="Z820" s="2"/>
     </row>
-    <row r="821">
+    <row r="821" ht="24.75" customHeight="1">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -24893,7 +24919,7 @@
       <c r="Y821" s="2"/>
       <c r="Z821" s="2"/>
     </row>
-    <row r="822">
+    <row r="822" ht="24.75" customHeight="1">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -24921,7 +24947,7 @@
       <c r="Y822" s="2"/>
       <c r="Z822" s="2"/>
     </row>
-    <row r="823">
+    <row r="823" ht="24.75" customHeight="1">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -24949,7 +24975,7 @@
       <c r="Y823" s="2"/>
       <c r="Z823" s="2"/>
     </row>
-    <row r="824">
+    <row r="824" ht="24.75" customHeight="1">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -24977,7 +25003,7 @@
       <c r="Y824" s="2"/>
       <c r="Z824" s="2"/>
     </row>
-    <row r="825">
+    <row r="825" ht="24.75" customHeight="1">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -25005,7 +25031,7 @@
       <c r="Y825" s="2"/>
       <c r="Z825" s="2"/>
     </row>
-    <row r="826">
+    <row r="826" ht="24.75" customHeight="1">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -25033,7 +25059,7 @@
       <c r="Y826" s="2"/>
       <c r="Z826" s="2"/>
     </row>
-    <row r="827">
+    <row r="827" ht="24.75" customHeight="1">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -25061,7 +25087,7 @@
       <c r="Y827" s="2"/>
       <c r="Z827" s="2"/>
     </row>
-    <row r="828">
+    <row r="828" ht="24.75" customHeight="1">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -25089,7 +25115,7 @@
       <c r="Y828" s="2"/>
       <c r="Z828" s="2"/>
     </row>
-    <row r="829">
+    <row r="829" ht="24.75" customHeight="1">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -25117,7 +25143,7 @@
       <c r="Y829" s="2"/>
       <c r="Z829" s="2"/>
     </row>
-    <row r="830">
+    <row r="830" ht="24.75" customHeight="1">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -25145,7 +25171,7 @@
       <c r="Y830" s="2"/>
       <c r="Z830" s="2"/>
     </row>
-    <row r="831">
+    <row r="831" ht="24.75" customHeight="1">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -25173,7 +25199,7 @@
       <c r="Y831" s="2"/>
       <c r="Z831" s="2"/>
     </row>
-    <row r="832">
+    <row r="832" ht="24.75" customHeight="1">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -25201,7 +25227,7 @@
       <c r="Y832" s="2"/>
       <c r="Z832" s="2"/>
     </row>
-    <row r="833">
+    <row r="833" ht="24.75" customHeight="1">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -25229,7 +25255,7 @@
       <c r="Y833" s="2"/>
       <c r="Z833" s="2"/>
     </row>
-    <row r="834">
+    <row r="834" ht="24.75" customHeight="1">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -25257,7 +25283,7 @@
       <c r="Y834" s="2"/>
       <c r="Z834" s="2"/>
     </row>
-    <row r="835">
+    <row r="835" ht="24.75" customHeight="1">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -25285,7 +25311,7 @@
       <c r="Y835" s="2"/>
       <c r="Z835" s="2"/>
     </row>
-    <row r="836">
+    <row r="836" ht="24.75" customHeight="1">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -25313,7 +25339,7 @@
       <c r="Y836" s="2"/>
       <c r="Z836" s="2"/>
     </row>
-    <row r="837">
+    <row r="837" ht="24.75" customHeight="1">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -25341,7 +25367,7 @@
       <c r="Y837" s="2"/>
       <c r="Z837" s="2"/>
     </row>
-    <row r="838">
+    <row r="838" ht="24.75" customHeight="1">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -25369,7 +25395,7 @@
       <c r="Y838" s="2"/>
       <c r="Z838" s="2"/>
     </row>
-    <row r="839">
+    <row r="839" ht="24.75" customHeight="1">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -25397,7 +25423,7 @@
       <c r="Y839" s="2"/>
       <c r="Z839" s="2"/>
     </row>
-    <row r="840">
+    <row r="840" ht="24.75" customHeight="1">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -25425,7 +25451,7 @@
       <c r="Y840" s="2"/>
       <c r="Z840" s="2"/>
     </row>
-    <row r="841">
+    <row r="841" ht="24.75" customHeight="1">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -25453,7 +25479,7 @@
       <c r="Y841" s="2"/>
       <c r="Z841" s="2"/>
     </row>
-    <row r="842">
+    <row r="842" ht="24.75" customHeight="1">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -25481,7 +25507,7 @@
       <c r="Y842" s="2"/>
       <c r="Z842" s="2"/>
     </row>
-    <row r="843">
+    <row r="843" ht="24.75" customHeight="1">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -25509,7 +25535,7 @@
       <c r="Y843" s="2"/>
       <c r="Z843" s="2"/>
     </row>
-    <row r="844">
+    <row r="844" ht="24.75" customHeight="1">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -25537,7 +25563,7 @@
       <c r="Y844" s="2"/>
       <c r="Z844" s="2"/>
     </row>
-    <row r="845">
+    <row r="845" ht="24.75" customHeight="1">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -25565,7 +25591,7 @@
       <c r="Y845" s="2"/>
       <c r="Z845" s="2"/>
     </row>
-    <row r="846">
+    <row r="846" ht="24.75" customHeight="1">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -25593,7 +25619,7 @@
       <c r="Y846" s="2"/>
       <c r="Z846" s="2"/>
     </row>
-    <row r="847">
+    <row r="847" ht="24.75" customHeight="1">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -25621,7 +25647,7 @@
       <c r="Y847" s="2"/>
       <c r="Z847" s="2"/>
     </row>
-    <row r="848">
+    <row r="848" ht="24.75" customHeight="1">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -25649,7 +25675,7 @@
       <c r="Y848" s="2"/>
       <c r="Z848" s="2"/>
     </row>
-    <row r="849">
+    <row r="849" ht="24.75" customHeight="1">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -25677,7 +25703,7 @@
       <c r="Y849" s="2"/>
       <c r="Z849" s="2"/>
     </row>
-    <row r="850">
+    <row r="850" ht="24.75" customHeight="1">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -25705,7 +25731,7 @@
       <c r="Y850" s="2"/>
       <c r="Z850" s="2"/>
     </row>
-    <row r="851">
+    <row r="851" ht="24.75" customHeight="1">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -25733,7 +25759,7 @@
       <c r="Y851" s="2"/>
       <c r="Z851" s="2"/>
     </row>
-    <row r="852">
+    <row r="852" ht="24.75" customHeight="1">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -25761,7 +25787,7 @@
       <c r="Y852" s="2"/>
       <c r="Z852" s="2"/>
     </row>
-    <row r="853">
+    <row r="853" ht="24.75" customHeight="1">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -25789,7 +25815,7 @@
       <c r="Y853" s="2"/>
       <c r="Z853" s="2"/>
     </row>
-    <row r="854">
+    <row r="854" ht="24.75" customHeight="1">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -25817,7 +25843,7 @@
       <c r="Y854" s="2"/>
       <c r="Z854" s="2"/>
     </row>
-    <row r="855">
+    <row r="855" ht="24.75" customHeight="1">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -25845,7 +25871,7 @@
       <c r="Y855" s="2"/>
       <c r="Z855" s="2"/>
     </row>
-    <row r="856">
+    <row r="856" ht="24.75" customHeight="1">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -25873,7 +25899,7 @@
       <c r="Y856" s="2"/>
       <c r="Z856" s="2"/>
     </row>
-    <row r="857">
+    <row r="857" ht="24.75" customHeight="1">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -25901,7 +25927,7 @@
       <c r="Y857" s="2"/>
       <c r="Z857" s="2"/>
     </row>
-    <row r="858">
+    <row r="858" ht="24.75" customHeight="1">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -25929,7 +25955,7 @@
       <c r="Y858" s="2"/>
       <c r="Z858" s="2"/>
     </row>
-    <row r="859">
+    <row r="859" ht="24.75" customHeight="1">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -25957,7 +25983,7 @@
       <c r="Y859" s="2"/>
       <c r="Z859" s="2"/>
     </row>
-    <row r="860">
+    <row r="860" ht="24.75" customHeight="1">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -25985,7 +26011,7 @@
       <c r="Y860" s="2"/>
       <c r="Z860" s="2"/>
     </row>
-    <row r="861">
+    <row r="861" ht="24.75" customHeight="1">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -26013,7 +26039,7 @@
       <c r="Y861" s="2"/>
       <c r="Z861" s="2"/>
     </row>
-    <row r="862">
+    <row r="862" ht="24.75" customHeight="1">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -26041,7 +26067,7 @@
       <c r="Y862" s="2"/>
       <c r="Z862" s="2"/>
     </row>
-    <row r="863">
+    <row r="863" ht="24.75" customHeight="1">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -26069,7 +26095,7 @@
       <c r="Y863" s="2"/>
       <c r="Z863" s="2"/>
     </row>
-    <row r="864">
+    <row r="864" ht="24.75" customHeight="1">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -26097,7 +26123,7 @@
       <c r="Y864" s="2"/>
       <c r="Z864" s="2"/>
     </row>
-    <row r="865">
+    <row r="865" ht="24.75" customHeight="1">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -26125,7 +26151,7 @@
       <c r="Y865" s="2"/>
       <c r="Z865" s="2"/>
     </row>
-    <row r="866">
+    <row r="866" ht="24.75" customHeight="1">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -26153,7 +26179,7 @@
       <c r="Y866" s="2"/>
       <c r="Z866" s="2"/>
     </row>
-    <row r="867">
+    <row r="867" ht="24.75" customHeight="1">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -26181,7 +26207,7 @@
       <c r="Y867" s="2"/>
       <c r="Z867" s="2"/>
     </row>
-    <row r="868">
+    <row r="868" ht="24.75" customHeight="1">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -26209,7 +26235,7 @@
       <c r="Y868" s="2"/>
       <c r="Z868" s="2"/>
     </row>
-    <row r="869">
+    <row r="869" ht="24.75" customHeight="1">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -26237,7 +26263,7 @@
       <c r="Y869" s="2"/>
       <c r="Z869" s="2"/>
     </row>
-    <row r="870">
+    <row r="870" ht="24.75" customHeight="1">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -26265,7 +26291,7 @@
       <c r="Y870" s="2"/>
       <c r="Z870" s="2"/>
     </row>
-    <row r="871">
+    <row r="871" ht="24.75" customHeight="1">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -26293,7 +26319,7 @@
       <c r="Y871" s="2"/>
       <c r="Z871" s="2"/>
     </row>
-    <row r="872">
+    <row r="872" ht="24.75" customHeight="1">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -26321,7 +26347,7 @@
       <c r="Y872" s="2"/>
       <c r="Z872" s="2"/>
     </row>
-    <row r="873">
+    <row r="873" ht="24.75" customHeight="1">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -26349,7 +26375,7 @@
       <c r="Y873" s="2"/>
       <c r="Z873" s="2"/>
     </row>
-    <row r="874">
+    <row r="874" ht="24.75" customHeight="1">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -26377,7 +26403,7 @@
       <c r="Y874" s="2"/>
       <c r="Z874" s="2"/>
     </row>
-    <row r="875">
+    <row r="875" ht="24.75" customHeight="1">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -26405,7 +26431,7 @@
       <c r="Y875" s="2"/>
       <c r="Z875" s="2"/>
     </row>
-    <row r="876">
+    <row r="876" ht="24.75" customHeight="1">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -26433,7 +26459,7 @@
       <c r="Y876" s="2"/>
       <c r="Z876" s="2"/>
     </row>
-    <row r="877">
+    <row r="877" ht="24.75" customHeight="1">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -26461,7 +26487,7 @@
       <c r="Y877" s="2"/>
       <c r="Z877" s="2"/>
     </row>
-    <row r="878">
+    <row r="878" ht="24.75" customHeight="1">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -26489,7 +26515,7 @@
       <c r="Y878" s="2"/>
       <c r="Z878" s="2"/>
     </row>
-    <row r="879">
+    <row r="879" ht="24.75" customHeight="1">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -26517,7 +26543,7 @@
       <c r="Y879" s="2"/>
       <c r="Z879" s="2"/>
     </row>
-    <row r="880">
+    <row r="880" ht="24.75" customHeight="1">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -26545,7 +26571,7 @@
       <c r="Y880" s="2"/>
       <c r="Z880" s="2"/>
     </row>
-    <row r="881">
+    <row r="881" ht="24.75" customHeight="1">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -26573,7 +26599,7 @@
       <c r="Y881" s="2"/>
       <c r="Z881" s="2"/>
     </row>
-    <row r="882">
+    <row r="882" ht="24.75" customHeight="1">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -26601,7 +26627,7 @@
       <c r="Y882" s="2"/>
       <c r="Z882" s="2"/>
     </row>
-    <row r="883">
+    <row r="883" ht="24.75" customHeight="1">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -26629,7 +26655,7 @@
       <c r="Y883" s="2"/>
       <c r="Z883" s="2"/>
     </row>
-    <row r="884">
+    <row r="884" ht="24.75" customHeight="1">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -26657,7 +26683,7 @@
       <c r="Y884" s="2"/>
       <c r="Z884" s="2"/>
     </row>
-    <row r="885">
+    <row r="885" ht="24.75" customHeight="1">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -26685,7 +26711,7 @@
       <c r="Y885" s="2"/>
       <c r="Z885" s="2"/>
     </row>
-    <row r="886">
+    <row r="886" ht="24.75" customHeight="1">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -26713,7 +26739,7 @@
       <c r="Y886" s="2"/>
       <c r="Z886" s="2"/>
     </row>
-    <row r="887">
+    <row r="887" ht="24.75" customHeight="1">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -26741,7 +26767,7 @@
       <c r="Y887" s="2"/>
       <c r="Z887" s="2"/>
     </row>
-    <row r="888">
+    <row r="888" ht="24.75" customHeight="1">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -26769,7 +26795,7 @@
       <c r="Y888" s="2"/>
       <c r="Z888" s="2"/>
     </row>
-    <row r="889">
+    <row r="889" ht="24.75" customHeight="1">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -26797,7 +26823,7 @@
       <c r="Y889" s="2"/>
       <c r="Z889" s="2"/>
     </row>
-    <row r="890">
+    <row r="890" ht="24.75" customHeight="1">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -26825,7 +26851,7 @@
       <c r="Y890" s="2"/>
       <c r="Z890" s="2"/>
     </row>
-    <row r="891">
+    <row r="891" ht="24.75" customHeight="1">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -26853,7 +26879,7 @@
       <c r="Y891" s="2"/>
       <c r="Z891" s="2"/>
     </row>
-    <row r="892">
+    <row r="892" ht="24.75" customHeight="1">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -26881,7 +26907,7 @@
       <c r="Y892" s="2"/>
       <c r="Z892" s="2"/>
     </row>
-    <row r="893">
+    <row r="893" ht="24.75" customHeight="1">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -26909,7 +26935,7 @@
       <c r="Y893" s="2"/>
       <c r="Z893" s="2"/>
     </row>
-    <row r="894">
+    <row r="894" ht="24.75" customHeight="1">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -26937,7 +26963,7 @@
       <c r="Y894" s="2"/>
       <c r="Z894" s="2"/>
     </row>
-    <row r="895">
+    <row r="895" ht="24.75" customHeight="1">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -26965,7 +26991,7 @@
       <c r="Y895" s="2"/>
       <c r="Z895" s="2"/>
     </row>
-    <row r="896">
+    <row r="896" ht="24.75" customHeight="1">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -26993,7 +27019,7 @@
       <c r="Y896" s="2"/>
       <c r="Z896" s="2"/>
     </row>
-    <row r="897">
+    <row r="897" ht="24.75" customHeight="1">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -27021,7 +27047,7 @@
       <c r="Y897" s="2"/>
       <c r="Z897" s="2"/>
     </row>
-    <row r="898">
+    <row r="898" ht="24.75" customHeight="1">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -27049,7 +27075,7 @@
       <c r="Y898" s="2"/>
       <c r="Z898" s="2"/>
     </row>
-    <row r="899">
+    <row r="899" ht="24.75" customHeight="1">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -27077,7 +27103,7 @@
       <c r="Y899" s="2"/>
       <c r="Z899" s="2"/>
     </row>
-    <row r="900">
+    <row r="900" ht="24.75" customHeight="1">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -27105,7 +27131,7 @@
       <c r="Y900" s="2"/>
       <c r="Z900" s="2"/>
     </row>
-    <row r="901">
+    <row r="901" ht="24.75" customHeight="1">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -27133,7 +27159,7 @@
       <c r="Y901" s="2"/>
       <c r="Z901" s="2"/>
     </row>
-    <row r="902">
+    <row r="902" ht="24.75" customHeight="1">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -27161,7 +27187,7 @@
       <c r="Y902" s="2"/>
       <c r="Z902" s="2"/>
     </row>
-    <row r="903">
+    <row r="903" ht="24.75" customHeight="1">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -27189,7 +27215,7 @@
       <c r="Y903" s="2"/>
       <c r="Z903" s="2"/>
     </row>
-    <row r="904">
+    <row r="904" ht="24.75" customHeight="1">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -27217,7 +27243,7 @@
       <c r="Y904" s="2"/>
       <c r="Z904" s="2"/>
     </row>
-    <row r="905">
+    <row r="905" ht="24.75" customHeight="1">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -27245,7 +27271,7 @@
       <c r="Y905" s="2"/>
       <c r="Z905" s="2"/>
     </row>
-    <row r="906">
+    <row r="906" ht="24.75" customHeight="1">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -27273,7 +27299,7 @@
       <c r="Y906" s="2"/>
       <c r="Z906" s="2"/>
     </row>
-    <row r="907">
+    <row r="907" ht="24.75" customHeight="1">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -27301,7 +27327,7 @@
       <c r="Y907" s="2"/>
       <c r="Z907" s="2"/>
     </row>
-    <row r="908">
+    <row r="908" ht="24.75" customHeight="1">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -27329,7 +27355,7 @@
       <c r="Y908" s="2"/>
       <c r="Z908" s="2"/>
     </row>
-    <row r="909">
+    <row r="909" ht="24.75" customHeight="1">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -27357,7 +27383,7 @@
       <c r="Y909" s="2"/>
       <c r="Z909" s="2"/>
     </row>
-    <row r="910">
+    <row r="910" ht="24.75" customHeight="1">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -27385,7 +27411,7 @@
       <c r="Y910" s="2"/>
       <c r="Z910" s="2"/>
     </row>
-    <row r="911">
+    <row r="911" ht="24.75" customHeight="1">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -27413,7 +27439,7 @@
       <c r="Y911" s="2"/>
       <c r="Z911" s="2"/>
     </row>
-    <row r="912">
+    <row r="912" ht="24.75" customHeight="1">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -27441,7 +27467,7 @@
       <c r="Y912" s="2"/>
       <c r="Z912" s="2"/>
     </row>
-    <row r="913">
+    <row r="913" ht="24.75" customHeight="1">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -27469,7 +27495,7 @@
       <c r="Y913" s="2"/>
       <c r="Z913" s="2"/>
     </row>
-    <row r="914">
+    <row r="914" ht="24.75" customHeight="1">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -27497,7 +27523,7 @@
       <c r="Y914" s="2"/>
       <c r="Z914" s="2"/>
     </row>
-    <row r="915">
+    <row r="915" ht="24.75" customHeight="1">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -27525,7 +27551,7 @@
       <c r="Y915" s="2"/>
       <c r="Z915" s="2"/>
     </row>
-    <row r="916">
+    <row r="916" ht="24.75" customHeight="1">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -27553,7 +27579,7 @@
       <c r="Y916" s="2"/>
       <c r="Z916" s="2"/>
     </row>
-    <row r="917">
+    <row r="917" ht="24.75" customHeight="1">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -27581,7 +27607,7 @@
       <c r="Y917" s="2"/>
       <c r="Z917" s="2"/>
     </row>
-    <row r="918">
+    <row r="918" ht="24.75" customHeight="1">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -27609,7 +27635,7 @@
       <c r="Y918" s="2"/>
       <c r="Z918" s="2"/>
     </row>
-    <row r="919">
+    <row r="919" ht="24.75" customHeight="1">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -27637,7 +27663,7 @@
       <c r="Y919" s="2"/>
       <c r="Z919" s="2"/>
     </row>
-    <row r="920">
+    <row r="920" ht="24.75" customHeight="1">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -27665,7 +27691,7 @@
       <c r="Y920" s="2"/>
       <c r="Z920" s="2"/>
     </row>
-    <row r="921">
+    <row r="921" ht="24.75" customHeight="1">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -27693,7 +27719,7 @@
       <c r="Y921" s="2"/>
       <c r="Z921" s="2"/>
     </row>
-    <row r="922">
+    <row r="922" ht="24.75" customHeight="1">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -27721,7 +27747,7 @@
       <c r="Y922" s="2"/>
       <c r="Z922" s="2"/>
     </row>
-    <row r="923">
+    <row r="923" ht="24.75" customHeight="1">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -27749,7 +27775,7 @@
       <c r="Y923" s="2"/>
       <c r="Z923" s="2"/>
     </row>
-    <row r="924">
+    <row r="924" ht="24.75" customHeight="1">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -27777,7 +27803,7 @@
       <c r="Y924" s="2"/>
       <c r="Z924" s="2"/>
     </row>
-    <row r="925">
+    <row r="925" ht="24.75" customHeight="1">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -27805,7 +27831,7 @@
       <c r="Y925" s="2"/>
       <c r="Z925" s="2"/>
     </row>
-    <row r="926">
+    <row r="926" ht="24.75" customHeight="1">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -27833,7 +27859,7 @@
       <c r="Y926" s="2"/>
       <c r="Z926" s="2"/>
     </row>
-    <row r="927">
+    <row r="927" ht="24.75" customHeight="1">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -27861,7 +27887,7 @@
       <c r="Y927" s="2"/>
       <c r="Z927" s="2"/>
     </row>
-    <row r="928">
+    <row r="928" ht="24.75" customHeight="1">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -27889,7 +27915,7 @@
       <c r="Y928" s="2"/>
       <c r="Z928" s="2"/>
     </row>
-    <row r="929">
+    <row r="929" ht="24.75" customHeight="1">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -27917,7 +27943,7 @@
       <c r="Y929" s="2"/>
       <c r="Z929" s="2"/>
     </row>
-    <row r="930">
+    <row r="930" ht="24.75" customHeight="1">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -27945,7 +27971,7 @@
       <c r="Y930" s="2"/>
       <c r="Z930" s="2"/>
     </row>
-    <row r="931">
+    <row r="931" ht="24.75" customHeight="1">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -27973,7 +27999,7 @@
       <c r="Y931" s="2"/>
       <c r="Z931" s="2"/>
     </row>
-    <row r="932">
+    <row r="932" ht="24.75" customHeight="1">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -28001,7 +28027,7 @@
       <c r="Y932" s="2"/>
       <c r="Z932" s="2"/>
     </row>
-    <row r="933">
+    <row r="933" ht="24.75" customHeight="1">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -28029,7 +28055,7 @@
       <c r="Y933" s="2"/>
       <c r="Z933" s="2"/>
     </row>
-    <row r="934">
+    <row r="934" ht="24.75" customHeight="1">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -28057,7 +28083,7 @@
       <c r="Y934" s="2"/>
       <c r="Z934" s="2"/>
     </row>
-    <row r="935">
+    <row r="935" ht="24.75" customHeight="1">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -28085,7 +28111,7 @@
       <c r="Y935" s="2"/>
       <c r="Z935" s="2"/>
     </row>
-    <row r="936">
+    <row r="936" ht="24.75" customHeight="1">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -28113,7 +28139,7 @@
       <c r="Y936" s="2"/>
       <c r="Z936" s="2"/>
     </row>
-    <row r="937">
+    <row r="937" ht="24.75" customHeight="1">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -28141,7 +28167,7 @@
       <c r="Y937" s="2"/>
       <c r="Z937" s="2"/>
     </row>
-    <row r="938">
+    <row r="938" ht="24.75" customHeight="1">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -28169,7 +28195,7 @@
       <c r="Y938" s="2"/>
       <c r="Z938" s="2"/>
     </row>
-    <row r="939">
+    <row r="939" ht="24.75" customHeight="1">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -28197,7 +28223,7 @@
       <c r="Y939" s="2"/>
       <c r="Z939" s="2"/>
     </row>
-    <row r="940">
+    <row r="940" ht="24.75" customHeight="1">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -28225,7 +28251,7 @@
       <c r="Y940" s="2"/>
       <c r="Z940" s="2"/>
     </row>
-    <row r="941">
+    <row r="941" ht="24.75" customHeight="1">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -28253,7 +28279,7 @@
       <c r="Y941" s="2"/>
       <c r="Z941" s="2"/>
     </row>
-    <row r="942">
+    <row r="942" ht="24.75" customHeight="1">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -28281,7 +28307,7 @@
       <c r="Y942" s="2"/>
       <c r="Z942" s="2"/>
     </row>
-    <row r="943">
+    <row r="943" ht="24.75" customHeight="1">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -28309,7 +28335,7 @@
       <c r="Y943" s="2"/>
       <c r="Z943" s="2"/>
     </row>
-    <row r="944">
+    <row r="944" ht="24.75" customHeight="1">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -28337,7 +28363,7 @@
       <c r="Y944" s="2"/>
       <c r="Z944" s="2"/>
     </row>
-    <row r="945">
+    <row r="945" ht="24.75" customHeight="1">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -28365,7 +28391,7 @@
       <c r="Y945" s="2"/>
       <c r="Z945" s="2"/>
     </row>
-    <row r="946">
+    <row r="946" ht="24.75" customHeight="1">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -28393,7 +28419,7 @@
       <c r="Y946" s="2"/>
       <c r="Z946" s="2"/>
     </row>
-    <row r="947">
+    <row r="947" ht="24.75" customHeight="1">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -28421,7 +28447,7 @@
       <c r="Y947" s="2"/>
       <c r="Z947" s="2"/>
     </row>
-    <row r="948">
+    <row r="948" ht="24.75" customHeight="1">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -28449,7 +28475,7 @@
       <c r="Y948" s="2"/>
       <c r="Z948" s="2"/>
     </row>
-    <row r="949">
+    <row r="949" ht="24.75" customHeight="1">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -28477,7 +28503,7 @@
       <c r="Y949" s="2"/>
       <c r="Z949" s="2"/>
     </row>
-    <row r="950">
+    <row r="950" ht="24.75" customHeight="1">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -28505,7 +28531,7 @@
       <c r="Y950" s="2"/>
       <c r="Z950" s="2"/>
     </row>
-    <row r="951">
+    <row r="951" ht="24.75" customHeight="1">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -28533,7 +28559,7 @@
       <c r="Y951" s="2"/>
       <c r="Z951" s="2"/>
     </row>
-    <row r="952">
+    <row r="952" ht="24.75" customHeight="1">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -28561,7 +28587,7 @@
       <c r="Y952" s="2"/>
       <c r="Z952" s="2"/>
     </row>
-    <row r="953">
+    <row r="953" ht="24.75" customHeight="1">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -28589,7 +28615,7 @@
       <c r="Y953" s="2"/>
       <c r="Z953" s="2"/>
     </row>
-    <row r="954">
+    <row r="954" ht="24.75" customHeight="1">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -28617,7 +28643,7 @@
       <c r="Y954" s="2"/>
       <c r="Z954" s="2"/>
     </row>
-    <row r="955">
+    <row r="955" ht="24.75" customHeight="1">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -28645,7 +28671,7 @@
       <c r="Y955" s="2"/>
       <c r="Z955" s="2"/>
     </row>
-    <row r="956">
+    <row r="956" ht="24.75" customHeight="1">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -28673,7 +28699,7 @@
       <c r="Y956" s="2"/>
       <c r="Z956" s="2"/>
     </row>
-    <row r="957">
+    <row r="957" ht="24.75" customHeight="1">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -28701,7 +28727,7 @@
       <c r="Y957" s="2"/>
       <c r="Z957" s="2"/>
     </row>
-    <row r="958">
+    <row r="958" ht="24.75" customHeight="1">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -28729,7 +28755,7 @@
       <c r="Y958" s="2"/>
       <c r="Z958" s="2"/>
     </row>
-    <row r="959">
+    <row r="959" ht="24.75" customHeight="1">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -28757,7 +28783,7 @@
       <c r="Y959" s="2"/>
       <c r="Z959" s="2"/>
     </row>
-    <row r="960">
+    <row r="960" ht="24.75" customHeight="1">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -28785,7 +28811,7 @@
       <c r="Y960" s="2"/>
       <c r="Z960" s="2"/>
     </row>
-    <row r="961">
+    <row r="961" ht="24.75" customHeight="1">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -28813,7 +28839,7 @@
       <c r="Y961" s="2"/>
       <c r="Z961" s="2"/>
     </row>
-    <row r="962">
+    <row r="962" ht="24.75" customHeight="1">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -28841,7 +28867,7 @@
       <c r="Y962" s="2"/>
       <c r="Z962" s="2"/>
     </row>
-    <row r="963">
+    <row r="963" ht="24.75" customHeight="1">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -28869,7 +28895,7 @@
       <c r="Y963" s="2"/>
       <c r="Z963" s="2"/>
     </row>
-    <row r="964">
+    <row r="964" ht="24.75" customHeight="1">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -28897,7 +28923,7 @@
       <c r="Y964" s="2"/>
       <c r="Z964" s="2"/>
     </row>
-    <row r="965">
+    <row r="965" ht="24.75" customHeight="1">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -28925,7 +28951,7 @@
       <c r="Y965" s="2"/>
       <c r="Z965" s="2"/>
     </row>
-    <row r="966">
+    <row r="966" ht="24.75" customHeight="1">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -28953,7 +28979,7 @@
       <c r="Y966" s="2"/>
       <c r="Z966" s="2"/>
     </row>
-    <row r="967">
+    <row r="967" ht="24.75" customHeight="1">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -28981,7 +29007,7 @@
       <c r="Y967" s="2"/>
       <c r="Z967" s="2"/>
     </row>
-    <row r="968">
+    <row r="968" ht="24.75" customHeight="1">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -29009,7 +29035,7 @@
       <c r="Y968" s="2"/>
       <c r="Z968" s="2"/>
     </row>
-    <row r="969">
+    <row r="969" ht="24.75" customHeight="1">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -29037,7 +29063,7 @@
       <c r="Y969" s="2"/>
       <c r="Z969" s="2"/>
     </row>
-    <row r="970">
+    <row r="970" ht="24.75" customHeight="1">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -29065,7 +29091,7 @@
       <c r="Y970" s="2"/>
       <c r="Z970" s="2"/>
     </row>
-    <row r="971">
+    <row r="971" ht="24.75" customHeight="1">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -29093,7 +29119,7 @@
       <c r="Y971" s="2"/>
       <c r="Z971" s="2"/>
     </row>
-    <row r="972">
+    <row r="972" ht="24.75" customHeight="1">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -29121,7 +29147,7 @@
       <c r="Y972" s="2"/>
       <c r="Z972" s="2"/>
     </row>
-    <row r="973">
+    <row r="973" ht="24.75" customHeight="1">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -29149,7 +29175,7 @@
       <c r="Y973" s="2"/>
       <c r="Z973" s="2"/>
     </row>
-    <row r="974">
+    <row r="974" ht="24.75" customHeight="1">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -29177,7 +29203,7 @@
       <c r="Y974" s="2"/>
       <c r="Z974" s="2"/>
     </row>
-    <row r="975">
+    <row r="975" ht="24.75" customHeight="1">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -29205,7 +29231,7 @@
       <c r="Y975" s="2"/>
       <c r="Z975" s="2"/>
     </row>
-    <row r="976">
+    <row r="976" ht="24.75" customHeight="1">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -29233,7 +29259,7 @@
       <c r="Y976" s="2"/>
       <c r="Z976" s="2"/>
     </row>
-    <row r="977">
+    <row r="977" ht="24.75" customHeight="1">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -29261,7 +29287,7 @@
       <c r="Y977" s="2"/>
       <c r="Z977" s="2"/>
     </row>
-    <row r="978">
+    <row r="978" ht="24.75" customHeight="1">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -29289,7 +29315,7 @@
       <c r="Y978" s="2"/>
       <c r="Z978" s="2"/>
     </row>
-    <row r="979">
+    <row r="979" ht="24.75" customHeight="1">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -29317,7 +29343,7 @@
       <c r="Y979" s="2"/>
       <c r="Z979" s="2"/>
     </row>
-    <row r="980">
+    <row r="980" ht="24.75" customHeight="1">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -29345,7 +29371,7 @@
       <c r="Y980" s="2"/>
       <c r="Z980" s="2"/>
     </row>
-    <row r="981">
+    <row r="981" ht="24.75" customHeight="1">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -29373,7 +29399,7 @@
       <c r="Y981" s="2"/>
       <c r="Z981" s="2"/>
     </row>
-    <row r="982">
+    <row r="982" ht="24.75" customHeight="1">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -29401,7 +29427,7 @@
       <c r="Y982" s="2"/>
       <c r="Z982" s="2"/>
     </row>
-    <row r="983">
+    <row r="983" ht="24.75" customHeight="1">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -29429,7 +29455,7 @@
       <c r="Y983" s="2"/>
       <c r="Z983" s="2"/>
     </row>
-    <row r="984">
+    <row r="984" ht="24.75" customHeight="1">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -29457,7 +29483,7 @@
       <c r="Y984" s="2"/>
       <c r="Z984" s="2"/>
     </row>
-    <row r="985">
+    <row r="985" ht="24.75" customHeight="1">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -29485,7 +29511,7 @@
       <c r="Y985" s="2"/>
       <c r="Z985" s="2"/>
     </row>
-    <row r="986">
+    <row r="986" ht="24.75" customHeight="1">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -29513,7 +29539,7 @@
       <c r="Y986" s="2"/>
       <c r="Z986" s="2"/>
     </row>
-    <row r="987">
+    <row r="987" ht="24.75" customHeight="1">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -29541,7 +29567,7 @@
       <c r="Y987" s="2"/>
       <c r="Z987" s="2"/>
     </row>
-    <row r="988">
+    <row r="988" ht="24.75" customHeight="1">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -29569,7 +29595,7 @@
       <c r="Y988" s="2"/>
       <c r="Z988" s="2"/>
     </row>
-    <row r="989">
+    <row r="989" ht="24.75" customHeight="1">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -29597,7 +29623,7 @@
       <c r="Y989" s="2"/>
       <c r="Z989" s="2"/>
     </row>
-    <row r="990">
+    <row r="990" ht="24.75" customHeight="1">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -29625,7 +29651,7 @@
       <c r="Y990" s="2"/>
       <c r="Z990" s="2"/>
     </row>
-    <row r="991">
+    <row r="991" ht="24.75" customHeight="1">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -29653,7 +29679,7 @@
       <c r="Y991" s="2"/>
       <c r="Z991" s="2"/>
     </row>
-    <row r="992">
+    <row r="992" ht="24.75" customHeight="1">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -29681,7 +29707,7 @@
       <c r="Y992" s="2"/>
       <c r="Z992" s="2"/>
     </row>
-    <row r="993">
+    <row r="993" ht="24.75" customHeight="1">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -29709,7 +29735,7 @@
       <c r="Y993" s="2"/>
       <c r="Z993" s="2"/>
     </row>
-    <row r="994">
+    <row r="994" ht="24.75" customHeight="1">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -29737,7 +29763,7 @@
       <c r="Y994" s="2"/>
       <c r="Z994" s="2"/>
     </row>
-    <row r="995">
+    <row r="995" ht="24.75" customHeight="1">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -29765,7 +29791,7 @@
       <c r="Y995" s="2"/>
       <c r="Z995" s="2"/>
     </row>
-    <row r="996">
+    <row r="996" ht="24.75" customHeight="1">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
@@ -29793,7 +29819,7 @@
       <c r="Y996" s="2"/>
       <c r="Z996" s="2"/>
     </row>
-    <row r="997">
+    <row r="997" ht="24.75" customHeight="1">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
@@ -29821,7 +29847,7 @@
       <c r="Y997" s="2"/>
       <c r="Z997" s="2"/>
     </row>
-    <row r="998">
+    <row r="998" ht="24.75" customHeight="1">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
@@ -29849,7 +29875,7 @@
       <c r="Y998" s="2"/>
       <c r="Z998" s="2"/>
     </row>
-    <row r="999">
+    <row r="999" ht="24.75" customHeight="1">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="2"/>
@@ -29877,7 +29903,7 @@
       <c r="Y999" s="2"/>
       <c r="Z999" s="2"/>
     </row>
-    <row r="1000">
+    <row r="1000" ht="24.75" customHeight="1">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>
@@ -29906,9 +29932,6 @@
       <c r="Z1000" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A8:B8"/>
-  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>